--- a/WSC/Test Report/SLCM/WSC Student & Instructor Module.xlsx
+++ b/WSC/Test Report/SLCM/WSC Student & Instructor Module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="7" r:id="rId1"/>
@@ -12,15 +12,14 @@
     <sheet name="TC2_Trainer" sheetId="2" r:id="rId3"/>
     <sheet name="TC3_Student Category" sheetId="3" r:id="rId4"/>
     <sheet name="TC4_Student Batch" sheetId="4" r:id="rId5"/>
-    <sheet name="TC5_Student Group" sheetId="5" r:id="rId6"/>
-    <sheet name="Generic" sheetId="8" r:id="rId7"/>
+    <sheet name="Generic" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="634">
   <si>
     <t>Contents</t>
   </si>
@@ -267,6 +266,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User Id</t>
     </r>
     <r>
@@ -307,6 +314,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User Id</t>
     </r>
     <r>
@@ -347,6 +362,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User Id</t>
     </r>
     <r>
@@ -1721,6 +1744,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">click on </t>
     </r>
     <r>
@@ -1944,420 +1974,6 @@
   </si>
   <si>
     <t>reflecting the newly created batch name as expected</t>
-  </si>
-  <si>
-    <t>TC6_Student Group</t>
-  </si>
-  <si>
-    <t>1.Student group is a collection of students who share common characteristics or attributes.                                                        2.These characteristics may include factors such as the students' academic level, course of study, program of study, or other specific criteria used to group students together.                                                                                                                               3.The Student Group allows you to create a group of students for different classes for the ongoing Academic Year.            4.User will fill out the necessary information for the student group, such as a name for the group,batch,exam declaration,course ,mentor-mentee and  the criteria that will be used to add students to the group for creation  of student group.</t>
-  </si>
-  <si>
-    <t>User should be able to login to WSC application. and should sucessfully navigate to the Student Group page</t>
-  </si>
-  <si>
-    <t>Student  is linked with the the Course, Semester based upon activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">program Enrollment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course Enrollment </t>
-  </si>
-  <si>
-    <t>Student batch is linked with the student group if user select student group based on batch</t>
-  </si>
-  <si>
-    <t>Student category  is linked with the list of student category master data which is fetched and is displayed in category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor is linked with instructor list </t>
-  </si>
-  <si>
-    <t>Exam declaration</t>
-  </si>
-  <si>
-    <t>Academic year is linked with the Academic year screen and is master data which is fetched from the Academic year list when user try to fill the Academic year in the New Student Group page</t>
-  </si>
-  <si>
-    <t>Academic Term is linked with the Academic Term screen and is master data which is pre applied filter on the basis of Academic Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program/Course is linked with the program list which is mater data and is fetched from the list of programs
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course /Module is linked with the Module list which is master data and is fetched from the list of Course 
-and course field which should be visible when user select group based on courses
-</t>
-  </si>
-  <si>
-    <t>verify the sub modules of the Student Group.</t>
-  </si>
-  <si>
-    <t>Addition of the New Student Group</t>
-  </si>
-  <si>
-    <t>Step  No.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home &gt;Admission &gt; Student and Instructor &gt; Student Group</t>
-    </r>
-  </si>
-  <si>
-    <t>Student Group page should open with all the pre-requisites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on "ADD Student Group" at the top right corner </t>
-  </si>
-  <si>
-    <t>The New Student Group page opens up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field should be displayed in a dropdown and it should be fetched from the academic Year list and user should able to select one options from the available options which are there in the dropdown  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when Academic year field is blank and user try to save </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error/warning/alert mesaage should be displayed please enter the Academic Year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enter the Group Based On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field is dropdown and user can choose single options from the list of options which are available there
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when use try to save Group Based on field without choosing any options </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error/warning/alert mesaage should be displayed please select at least one options
-</t>
-  </si>
-  <si>
-    <t>Enter Student Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This field accept text value and user input is allowed </t>
-  </si>
-  <si>
-    <t>when user try to save without entering Student Group Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error/warning/alert mesaage should be displayed please enter the valid Student Group Name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter the class room </t>
-  </si>
-  <si>
-    <t>Enter the total capacity</t>
-  </si>
-  <si>
-    <t>Enter the Academic Term</t>
-  </si>
-  <si>
-    <t>this is a link field which is linked with the Academic Term Screen, which should 
-appear as filtered applied w.r.t to Academic Year when user try to fill this field</t>
-  </si>
-  <si>
-    <t>Enter Maximum Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Program/Course </t>
-  </si>
-  <si>
-    <t>this is link field which should be displayed from the dropdown of the list of programs and the values is fetched where user should able to select one options from the available options.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when Program/course field is blank and user try to save </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter batch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is link field which should be visible when user select the student group based upon batch 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Student category </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Category is a link field which sould be displayed from the dropdowns from the list of categories and the values are fetched from th master wher user
-can select one options from the avilable options </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the  course /Module </t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a link field which will be visible when user select the group based on 
-courses and the values is fetcehd from the list of courses </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check if the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Disabled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">check box is click able </t>
-    </r>
-  </si>
-  <si>
-    <t>the user should able to perform check and uncheck action on the disabled
- checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if user checks the disabled checkbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the Student group record should not be visible in any of the respective transaction
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Child Table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">check if Get Students button is clickable or not </t>
-  </si>
-  <si>
-    <t>Get Students should bhe clickable and the moment the user click on the button    
-is clicked the list of students w.r.t course should be auto-fetched in the students table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when Get Students button is clicked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All the students will be auto-fetched as per the inputted parameters and should be visible in the tabular format
- </t>
-  </si>
-  <si>
-    <t>Add row button should be clickable and a dialog page should open where user
-can add students and group roll number</t>
-  </si>
-  <si>
-    <t>Enter Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a link field where students will come who belongs to the particular course, Semeter and based upon the activity and mentor communication, User will enter the students manually </t>
-  </si>
-  <si>
-    <t>Enter Student Name</t>
-  </si>
-  <si>
-    <t>This field accept text value which will auto-fetched when Student ID is fethed 
-in a Student field</t>
-  </si>
-  <si>
-    <t>Enter group Roll No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thiis field should accept the integer value and it will be auto created </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check if the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Active </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>check box is clickable or not</t>
-    </r>
-  </si>
-  <si>
-    <t>the user should able to perform check and uncheck action on the Active
- checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if user unchecks the Active checkbox </t>
-  </si>
-  <si>
-    <t>By defaullt the check box is marked as checked when the dialog box open to add new student but if user unchecks then student will not be visible in any transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor Child Table </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter values in the Instructor/ Trainer table </t>
-  </si>
-  <si>
-    <t>instructor/Trainer list should be selected as per the inputted parameter and 
-when student group is selected based on courses the list of only those trainers 
-should be visible w.r.t course and should be appear in a tabular format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor/Trainer is a link field </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the value is fetched from the list of Trainer and user should able to select </t>
-  </si>
-  <si>
-    <t>Enter the Trainer Name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">this is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Read only </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">field which is auto filled after selecting the Instructor ID </t>
-    </r>
-  </si>
-  <si>
-    <t>Enter Module</t>
-  </si>
-  <si>
-    <t>this is a link field where it will populate on the basis of course group whose 
-name is selected in the course field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login As Student </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student user can only Read but they cannot Write, Create, Delete. Submit, cancel, Amend is not allowed as this page is just for drafting
-</t>
-  </si>
-  <si>
-    <t>Login As Education Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education Admin user can Read, Write, Create, Delete. Submit, cancel, Amend is not allowed as this page is just for drafting
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucessfully login
-should happen and homepage must be visible to the user with Read access </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Student but with blank credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user try to login as Instructor with all the valid credentials 
-</t>
-  </si>
-  <si>
-    <t>Only the the read 
-access is allowed 
-to the instructor so they can only view the details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Instructor with all the invalid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Instructor but with blank credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When user try to login as Education Admin with all the valid credentials 
-</t>
-  </si>
-  <si>
-    <t>All the access is allowed apart from Submit cancel Amend 
-to the Education Admin so they can Modify the details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Education Admin with all the invalid credentials 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when user try to login as Education Admin but with blank credentials 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Generic </t>
@@ -3332,7 +2948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3393,39 +3009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3456,6 +3039,28 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -3602,7 +3207,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3614,34 +3219,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3727,7 +3332,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3801,165 +3406,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3968,23 +3514,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4007,7 +3552,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4016,32 +3561,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4059,11 +3603,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4084,10 +3628,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4096,62 +3640,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
@@ -4172,10 +3709,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4518,82 +4055,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.0857142857143" style="184" customWidth="1"/>
-    <col min="2" max="2" width="26.2857142857143" style="184" customWidth="1"/>
-    <col min="3" max="5" width="21.5428571428571" style="184" customWidth="1"/>
-    <col min="6" max="6" width="22.1809523809524" style="184" customWidth="1"/>
-    <col min="7" max="8" width="19.7238095238095" style="184" customWidth="1"/>
-    <col min="9" max="9" width="15" style="184" customWidth="1"/>
-    <col min="10" max="10" width="20" style="184" customWidth="1"/>
-    <col min="11" max="11" width="14.6285714285714" style="184" customWidth="1"/>
-    <col min="12" max="12" width="12.9047619047619" style="184" customWidth="1"/>
-    <col min="13" max="13" width="15.7238095238095" style="184" customWidth="1"/>
-    <col min="14" max="14" width="14.4571428571429" style="184" customWidth="1"/>
-    <col min="15" max="15" width="20.2666666666667" style="184" customWidth="1"/>
-    <col min="16" max="16" width="29.9047619047619" style="184" customWidth="1"/>
-    <col min="17" max="16384" width="8.72380952380952" style="184"/>
+    <col min="1" max="1" width="19.0857142857143" style="158" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" style="158" customWidth="1"/>
+    <col min="3" max="5" width="21.5428571428571" style="158" customWidth="1"/>
+    <col min="6" max="6" width="22.1809523809524" style="158" customWidth="1"/>
+    <col min="7" max="8" width="19.7238095238095" style="158" customWidth="1"/>
+    <col min="9" max="9" width="15" style="158" customWidth="1"/>
+    <col min="10" max="10" width="20" style="158" customWidth="1"/>
+    <col min="11" max="11" width="14.6285714285714" style="158" customWidth="1"/>
+    <col min="12" max="12" width="12.9047619047619" style="158" customWidth="1"/>
+    <col min="13" max="13" width="15.7238095238095" style="158" customWidth="1"/>
+    <col min="14" max="14" width="14.4571428571429" style="158" customWidth="1"/>
+    <col min="15" max="15" width="20.2666666666667" style="158" customWidth="1"/>
+    <col min="16" max="16" width="29.9047619047619" style="158" customWidth="1"/>
+    <col min="17" max="16384" width="8.72380952380952" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" s="184" customFormat="1" ht="21" spans="1:8">
-      <c r="A2" s="185" t="s">
+    <row r="2" s="158" customFormat="1" ht="21" spans="1:8">
+      <c r="A2" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-    </row>
-    <row r="4" s="184" customFormat="1" ht="150" spans="1:15">
-      <c r="A4" s="186" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+    </row>
+    <row r="4" s="158" customFormat="1" ht="150" spans="1:15">
+      <c r="A4" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="186" t="s">
+      <c r="F4" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="186" t="s">
+      <c r="G4" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="186" t="s">
+      <c r="H4" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-    </row>
-    <row r="5" s="184" customFormat="1" spans="2:15">
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+    </row>
+    <row r="5" s="158" customFormat="1" spans="2:15">
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4609,9 +4146,9 @@
   <sheetPr/>
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <pane xSplit="27870" topLeftCell="Q1" activePane="topLeft"/>
-      <selection activeCell="E177" sqref="E177"/>
+      <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -4629,7 +4166,7 @@
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -4646,26 +4183,26 @@
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
@@ -4677,40 +4214,40 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="82">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" ht="30" spans="1:7">
-      <c r="A8" s="82">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="82">
+      <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -4718,10 +4255,10 @@
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="82">
+      <c r="A10" s="59">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -4729,39 +4266,39 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="82">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="82">
+      <c r="A12" s="59">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="82">
+      <c r="A13" s="59">
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="57" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="82">
+      <c r="A14" s="59">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:2">
-      <c r="A15" s="82">
+      <c r="A15" s="59">
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -4769,7 +4306,7 @@
       </c>
     </row>
     <row r="16" ht="30" spans="1:2">
-      <c r="A16" s="82">
+      <c r="A16" s="59">
         <v>10</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -4777,7 +4314,7 @@
       </c>
     </row>
     <row r="17" ht="30" spans="1:2">
-      <c r="A17" s="82">
+      <c r="A17" s="59">
         <v>11</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -4785,7 +4322,7 @@
       </c>
     </row>
     <row r="18" ht="30" spans="1:2">
-      <c r="A18" s="82">
+      <c r="A18" s="59">
         <v>12</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -4793,7 +4330,7 @@
       </c>
     </row>
     <row r="19" ht="30" spans="1:2">
-      <c r="A19" s="82">
+      <c r="A19" s="59">
         <v>13</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -4801,18 +4338,18 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="82">
+      <c r="A20" s="59">
         <v>14</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="114" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:2">
-      <c r="A21" s="82">
+      <c r="A21" s="59">
         <v>15</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4820,34 +4357,34 @@
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="115" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="139">
+      <c r="A25" s="116">
         <v>1</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="140">
+      <c r="A26" s="117">
         <v>2</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="140">
+      <c r="A27" s="117">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4855,7 +4392,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="140">
+      <c r="A28" s="117">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4863,7 +4400,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="140">
+      <c r="A29" s="117">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4871,7 +4408,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="141">
+      <c r="A30" s="118">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4879,7 +4416,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="141">
+      <c r="A31" s="118">
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4887,94 +4424,94 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="141">
+      <c r="A32" s="118">
         <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" s="134" customFormat="1" spans="1:7">
-      <c r="A38" s="87" t="s">
+    <row r="38" s="111" customFormat="1" spans="1:7">
+      <c r="A38" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="78" t="s">
+      <c r="F38" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="142"/>
+      <c r="G38" s="119"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="143">
+      <c r="A39" s="120">
         <v>1</v>
       </c>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="81"/>
+      <c r="E39" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="70"/>
+      <c r="G39" s="58"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="82">
+      <c r="A40" s="59">
         <v>2</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="146" t="s">
+      <c r="D40" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="53"/>
+      <c r="E40" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="82">
+      <c r="A41" s="59">
         <v>3</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="91" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="53"/>
+      <c r="E41" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" ht="30" spans="1:6">
-      <c r="A42" s="148">
+      <c r="A42" s="125">
         <v>4</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="74" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -4983,7 +4520,7 @@
       <c r="D42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="145" t="s">
+      <c r="E42" s="122" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="34" t="s">
@@ -4991,35 +4528,35 @@
       </c>
     </row>
     <row r="43" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A43" s="149"/>
-      <c r="B43" s="95" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="74" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="150" t="s">
+      <c r="D43" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="53"/>
+      <c r="E43" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" ht="30" spans="1:6">
-      <c r="A44" s="82">
+      <c r="A44" s="59">
         <v>5</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="145" t="s">
+      <c r="E44" s="122" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="34" t="s">
@@ -5027,7 +4564,7 @@
       </c>
     </row>
     <row r="45" ht="30" spans="1:6">
-      <c r="A45" s="82">
+      <c r="A45" s="59">
         <v>6</v>
       </c>
       <c r="B45" s="34" t="s">
@@ -5039,7 +4576,7 @@
       <c r="D45" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="122" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="34" t="s">
@@ -5047,7 +4584,7 @@
       </c>
     </row>
     <row r="46" ht="45" spans="1:6">
-      <c r="A46" s="82">
+      <c r="A46" s="59">
         <v>7</v>
       </c>
       <c r="B46" s="34" t="s">
@@ -5059,7 +4596,7 @@
       <c r="D46" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="145" t="s">
+      <c r="E46" s="122" t="s">
         <v>68</v>
       </c>
       <c r="F46" s="34" t="s">
@@ -5067,30 +4604,30 @@
       </c>
     </row>
     <row r="47" ht="75" spans="1:6">
-      <c r="A47" s="82">
+      <c r="A47" s="59">
         <v>8</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="145" t="s">
+      <c r="E47" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="152" t="s">
+      <c r="F47" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" ht="45" spans="1:6">
-      <c r="A48" s="82">
+      <c r="A48" s="59">
         <v>9</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="68" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="33" t="s">
@@ -5099,7 +4636,7 @@
       <c r="D48" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="145" t="s">
+      <c r="E48" s="122" t="s">
         <v>68</v>
       </c>
       <c r="F48" s="34" t="s">
@@ -5107,19 +4644,19 @@
       </c>
     </row>
     <row r="49" ht="30" spans="1:6">
-      <c r="A49" s="153">
+      <c r="A49" s="129">
         <v>11</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="69" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="91" t="s">
+      <c r="E49" s="70" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="33" t="s">
@@ -5127,17 +4664,17 @@
       </c>
     </row>
     <row r="50" ht="30" spans="1:6">
-      <c r="A50" s="154"/>
-      <c r="B50" s="52" t="s">
+      <c r="A50" s="130"/>
+      <c r="B50" s="68" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="91" t="s">
+      <c r="E50" s="70" t="s">
         <v>68</v>
       </c>
       <c r="F50" s="33" t="s">
@@ -5145,35 +4682,35 @@
       </c>
     </row>
     <row r="51" ht="24" customHeight="1" spans="1:6">
-      <c r="A51" s="155"/>
-      <c r="B51" s="52" t="s">
+      <c r="A51" s="131"/>
+      <c r="B51" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="52"/>
+      <c r="E51" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="68"/>
     </row>
     <row r="52" ht="30" spans="1:6">
-      <c r="A52" s="156">
+      <c r="A52" s="132">
         <v>12</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="91" t="s">
+      <c r="E52" s="70" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="33" t="s">
@@ -5181,7 +4718,7 @@
       </c>
     </row>
     <row r="53" ht="31.5" customHeight="1" spans="1:6">
-      <c r="A53" s="157"/>
+      <c r="A53" s="133"/>
       <c r="B53" s="33" t="s">
         <v>104</v>
       </c>
@@ -5191,33 +4728,33 @@
       <c r="D53" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="91" t="s">
+      <c r="E53" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="68" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" ht="33.75" customHeight="1" spans="1:6">
-      <c r="A54" s="158"/>
+      <c r="A54" s="134"/>
       <c r="B54" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="91" t="s">
+      <c r="E54" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="68" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" ht="30" spans="1:6">
-      <c r="A55" s="143">
+      <c r="A55" s="120">
         <v>13</v>
       </c>
       <c r="B55" s="33" t="s">
@@ -5226,16 +4763,16 @@
       <c r="C55" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F55" s="52"/>
+      <c r="E55" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="68"/>
     </row>
     <row r="56" ht="45" spans="1:6">
-      <c r="A56" s="156">
+      <c r="A56" s="132">
         <v>14</v>
       </c>
       <c r="B56" s="33" t="s">
@@ -5247,30 +4784,30 @@
       <c r="D56" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="52"/>
+      <c r="E56" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="68"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="157"/>
+      <c r="A57" s="133"/>
       <c r="B57" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="E57" s="91" t="s">
+      <c r="E57" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="52"/>
+      <c r="F57" s="68"/>
     </row>
     <row r="58" ht="45" spans="1:6">
-      <c r="A58" s="157"/>
-      <c r="B58" s="52" t="s">
+      <c r="A58" s="133"/>
+      <c r="B58" s="68" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="33" t="s">
@@ -5279,166 +4816,166 @@
       <c r="D58" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="159" t="s">
+      <c r="E58" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="52"/>
+      <c r="F58" s="68"/>
     </row>
     <row r="59" ht="30" spans="1:6">
-      <c r="A59" s="158"/>
+      <c r="A59" s="134"/>
       <c r="B59" s="33" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="52"/>
+      <c r="E59" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="68"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="158"/>
+      <c r="A60" s="134"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="52"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="68"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="143"/>
-      <c r="B61" s="160" t="s">
+      <c r="A61" s="120"/>
+      <c r="B61" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="162"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="138"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="82"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="52"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="68"/>
     </row>
     <row r="63" ht="30" spans="1:6">
-      <c r="A63" s="82">
+      <c r="A63" s="59">
         <v>15</v>
       </c>
-      <c r="B63" s="152" t="s">
+      <c r="B63" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="105" t="s">
+      <c r="C63" s="68" t="s">
         <v>130</v>
       </c>
       <c r="D63" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="52"/>
+      <c r="E63" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="68"/>
     </row>
     <row r="64" ht="74" customHeight="1" spans="1:6">
-      <c r="A64" s="123">
+      <c r="A64" s="100">
         <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="163" t="s">
+      <c r="C64" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D64" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="52"/>
+      <c r="E64" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="68"/>
     </row>
     <row r="65" ht="34.5" customHeight="1" spans="1:6">
-      <c r="A65" s="164">
+      <c r="A65" s="139">
         <v>18</v>
       </c>
-      <c r="B65" s="165" t="s">
+      <c r="B65" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="52"/>
+      <c r="E65" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="68"/>
     </row>
     <row r="66" ht="30" spans="1:6">
-      <c r="A66" s="143">
+      <c r="A66" s="120">
         <v>19</v>
       </c>
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="68" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="52"/>
+      <c r="E66" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="68"/>
     </row>
     <row r="67" ht="30" spans="1:6">
-      <c r="A67" s="143">
+      <c r="A67" s="120">
         <v>20</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="68" t="s">
         <v>142</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="52"/>
+      <c r="E67" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="68"/>
     </row>
     <row r="68" ht="30" spans="1:6">
-      <c r="A68" s="143">
+      <c r="A68" s="120">
         <v>21</v>
       </c>
-      <c r="B68" s="113" t="s">
+      <c r="B68" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="68" t="s">
         <v>145</v>
       </c>
       <c r="D68" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="52"/>
+      <c r="E68" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="68"/>
     </row>
     <row r="69" ht="30" spans="1:6">
-      <c r="A69" s="143">
+      <c r="A69" s="120">
         <v>22</v>
       </c>
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="91" t="s">
         <v>147</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -5447,16 +4984,16 @@
       <c r="D69" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E69" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="52"/>
+      <c r="E69" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="68"/>
     </row>
     <row r="70" ht="30" spans="1:6">
-      <c r="A70" s="143">
+      <c r="A70" s="120">
         <v>23</v>
       </c>
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="91" t="s">
         <v>150</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -5465,88 +5002,88 @@
       <c r="D70" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E70" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="52"/>
+      <c r="E70" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="68"/>
     </row>
     <row r="71" ht="30" spans="1:6">
-      <c r="A71" s="143">
+      <c r="A71" s="120">
         <v>24</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="68" t="s">
         <v>152</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E71" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="52"/>
+      <c r="E71" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="68"/>
     </row>
     <row r="72" ht="30" spans="1:6">
-      <c r="A72" s="143">
+      <c r="A72" s="120">
         <v>25</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="68" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="52"/>
+      <c r="E72" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="68"/>
     </row>
     <row r="73" ht="30" spans="1:6">
-      <c r="A73" s="143">
+      <c r="A73" s="120">
         <v>26</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="52"/>
+      <c r="E73" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="68"/>
     </row>
     <row r="74" ht="30" spans="1:6">
-      <c r="A74" s="143">
+      <c r="A74" s="120">
         <v>27</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="68" t="s">
         <v>159</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="52"/>
+      <c r="E74" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="68"/>
     </row>
     <row r="75" ht="45" spans="1:6">
-      <c r="A75" s="143">
+      <c r="A75" s="120">
         <v>28</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="68" t="s">
         <v>162</v>
       </c>
       <c r="C75" s="33" t="s">
@@ -5555,7 +5092,7 @@
       <c r="D75" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="91" t="s">
+      <c r="E75" s="70" t="s">
         <v>68</v>
       </c>
       <c r="F75" s="33" t="s">
@@ -5563,290 +5100,290 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="143">
+      <c r="A76" s="120">
         <v>29</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="68" t="s">
         <v>166</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="52"/>
+      <c r="E76" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="68"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="143">
+      <c r="A77" s="120">
         <v>30</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="68" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="E77" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="52"/>
+      <c r="E77" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="68"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="143">
+      <c r="A78" s="120">
         <v>31</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="68" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78" s="52"/>
+      <c r="E78" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="68"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="143">
+      <c r="A79" s="120">
         <v>32</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="68" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="E79" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="52"/>
+      <c r="E79" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="68"/>
     </row>
     <row r="80" ht="30" spans="1:6">
-      <c r="A80" s="143">
+      <c r="A80" s="120">
         <v>33</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="68" t="s">
         <v>178</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="52" t="s">
+      <c r="D80" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F80" s="52"/>
+      <c r="E80" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="68"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="82"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="52"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="68"/>
     </row>
     <row r="82" ht="30" spans="1:6">
-      <c r="A82" s="82"/>
-      <c r="B82" s="78" t="s">
+      <c r="A82" s="59"/>
+      <c r="B82" s="53" t="s">
         <v>181</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="166" t="s">
+      <c r="D82" s="68"/>
+      <c r="E82" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="F82" s="52"/>
+      <c r="F82" s="68"/>
     </row>
     <row r="83" ht="45" spans="1:6">
-      <c r="A83" s="143">
+      <c r="A83" s="120">
         <v>34</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="68" t="s">
         <v>184</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="52"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="68"/>
     </row>
     <row r="84" ht="45" spans="1:6">
-      <c r="A84" s="143">
+      <c r="A84" s="120">
         <v>35</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="C84" s="152" t="s">
+      <c r="C84" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="52"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="68"/>
     </row>
     <row r="85" ht="45" spans="1:6">
-      <c r="A85" s="143">
+      <c r="A85" s="120">
         <v>36</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="152" t="s">
+      <c r="C85" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="52"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="68"/>
     </row>
     <row r="86" ht="45" spans="1:6">
-      <c r="A86" s="143">
+      <c r="A86" s="120">
         <v>37</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="152" t="s">
+      <c r="C86" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="52"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="52"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="68"/>
     </row>
     <row r="87" ht="45" spans="1:6">
-      <c r="A87" s="143">
+      <c r="A87" s="120">
         <v>38</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="152" t="s">
+      <c r="C87" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="52"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="52"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="68"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="164"/>
+      <c r="A88" s="139"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="52"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="68"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="82"/>
-      <c r="B89" s="78" t="s">
+      <c r="A89" s="59"/>
+      <c r="B89" s="53" t="s">
         <v>194</v>
       </c>
       <c r="C89" s="34"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="52"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="68"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="82"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="52"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="68"/>
     </row>
     <row r="91" customFormat="1" ht="45" spans="1:6">
-      <c r="A91" s="143">
+      <c r="A91" s="120">
         <v>39</v>
       </c>
-      <c r="B91" s="167" t="s">
+      <c r="B91" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="104" t="s">
+      <c r="C91" s="83" t="s">
         <v>185</v>
       </c>
       <c r="D91" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E91" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="52"/>
+      <c r="E91" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="68"/>
     </row>
     <row r="92" ht="30" spans="1:6">
-      <c r="A92" s="143">
+      <c r="A92" s="120">
         <v>40</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="104" t="s">
+      <c r="C92" s="83" t="s">
         <v>197</v>
       </c>
       <c r="D92" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="52"/>
+      <c r="E92" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="68"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="143">
+      <c r="A93" s="120">
         <v>41</v>
       </c>
-      <c r="B93" s="168" t="s">
+      <c r="B93" s="143" t="s">
         <v>199</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="E93" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F93" s="52"/>
+      <c r="E93" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="68"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="143">
+      <c r="A94" s="120">
         <v>42</v>
       </c>
-      <c r="B94" s="168" t="s">
+      <c r="B94" s="143" t="s">
         <v>202</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D94" s="52" t="s">
+      <c r="D94" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="52"/>
+      <c r="E94" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" s="68"/>
     </row>
     <row r="95" ht="30" spans="1:6">
-      <c r="A95" s="143">
+      <c r="A95" s="120">
         <v>43</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="68" t="s">
         <v>205</v>
       </c>
       <c r="C95" s="34" t="s">
@@ -5855,52 +5392,52 @@
       <c r="D95" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F95" s="52"/>
-    </row>
-    <row r="96" s="135" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A96" s="143">
+      <c r="F95" s="68"/>
+    </row>
+    <row r="96" s="112" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A96" s="120">
         <v>44</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="159" t="s">
+      <c r="E96" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="F96" s="52"/>
+      <c r="F96" s="68"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="143">
+      <c r="A97" s="120">
         <v>45</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E97" s="159" t="s">
+      <c r="E97" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="52"/>
+      <c r="F97" s="68"/>
     </row>
     <row r="98" ht="30" spans="1:6">
-      <c r="A98" s="143">
+      <c r="A98" s="120">
         <v>46</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="68" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="34" t="s">
@@ -5909,34 +5446,34 @@
       <c r="D98" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E98" s="91" t="s">
+      <c r="E98" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F98" s="52"/>
+      <c r="F98" s="68"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="143">
+      <c r="A99" s="120">
         <v>47</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="E99" s="91" t="s">
+      <c r="E99" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F99" s="52"/>
+      <c r="F99" s="68"/>
     </row>
     <row r="100" ht="30" spans="1:6">
-      <c r="A100" s="143">
+      <c r="A100" s="120">
         <v>48</v>
       </c>
-      <c r="B100" s="52" t="s">
+      <c r="B100" s="68" t="s">
         <v>220</v>
       </c>
       <c r="C100" s="34" t="s">
@@ -5945,158 +5482,158 @@
       <c r="D100" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E100" s="91" t="s">
+      <c r="E100" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F100" s="52"/>
+      <c r="F100" s="68"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="143"/>
-      <c r="B101" s="52"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="52"/>
+      <c r="A101" s="120"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="68"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="82"/>
-      <c r="B102" s="114" t="s">
+      <c r="A102" s="59"/>
+      <c r="B102" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="116"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="94"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="82"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="52"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="70"/>
+      <c r="F103" s="68"/>
     </row>
     <row r="104" ht="45" spans="1:6">
-      <c r="A104" s="82">
+      <c r="A104" s="59">
         <v>49</v>
       </c>
-      <c r="B104" s="89" t="s">
+      <c r="B104" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="152" t="s">
+      <c r="C104" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="E104" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F104" s="52"/>
+      <c r="E104" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" s="68"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="82">
+      <c r="A105" s="59">
         <v>50</v>
       </c>
-      <c r="B105" s="169" t="s">
+      <c r="B105" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="C105" s="170" t="s">
+      <c r="C105" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D105" s="52" t="s">
+      <c r="D105" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" s="52"/>
+      <c r="E105" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="68"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="82">
+      <c r="A106" s="59">
         <v>51</v>
       </c>
-      <c r="B106" s="169" t="s">
+      <c r="B106" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="C106" s="170" t="s">
+      <c r="C106" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="52" t="s">
+      <c r="D106" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="E106" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F106" s="52"/>
+      <c r="E106" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="68"/>
     </row>
     <row r="107" ht="30" spans="1:6">
-      <c r="A107" s="82">
+      <c r="A107" s="59">
         <v>52</v>
       </c>
-      <c r="B107" s="169" t="s">
+      <c r="B107" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D107" s="52" t="s">
+      <c r="D107" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="E107" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="52"/>
+      <c r="E107" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="68"/>
     </row>
     <row r="108" ht="90" spans="1:6">
-      <c r="A108" s="171">
+      <c r="A108" s="145">
         <v>53</v>
       </c>
-      <c r="B108" s="169" t="s">
+      <c r="B108" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="C108" s="68" t="s">
+      <c r="C108" s="34" t="s">
         <v>233</v>
       </c>
       <c r="D108" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E108" s="91" t="s">
+      <c r="E108" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F108" s="52"/>
+      <c r="F108" s="68"/>
     </row>
     <row r="109" ht="30" spans="1:6">
-      <c r="A109" s="172"/>
-      <c r="B109" s="169" t="s">
+      <c r="A109" s="146"/>
+      <c r="B109" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="68" t="s">
+      <c r="C109" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="E109" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109" s="52"/>
+      <c r="E109" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109" s="68"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="173"/>
-      <c r="B110" s="169" t="s">
+      <c r="A110" s="147"/>
+      <c r="B110" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="170"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="52"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="68"/>
     </row>
     <row r="111" ht="45" spans="1:6">
-      <c r="A111" s="82">
+      <c r="A111" s="59">
         <v>54</v>
       </c>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="68" t="s">
         <v>238</v>
       </c>
       <c r="C111" s="34" t="s">
@@ -6105,114 +5642,114 @@
       <c r="D111" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="91" t="s">
+      <c r="E111" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F111" s="52"/>
+      <c r="F111" s="68"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="82"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="68"/>
       <c r="C112" s="34"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="52"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="68"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="82"/>
-      <c r="B113" s="114" t="s">
+      <c r="A113" s="59"/>
+      <c r="B113" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="C113" s="115"/>
-      <c r="D113" s="115"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="116"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="94"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="82"/>
-      <c r="B114" s="52"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="68"/>
       <c r="C114" s="34"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="91"/>
-      <c r="F114" s="52"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="68"/>
     </row>
     <row r="115" ht="45" spans="1:6">
-      <c r="A115" s="82">
+      <c r="A115" s="59">
         <v>55</v>
       </c>
-      <c r="B115" s="89" t="s">
+      <c r="B115" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C115" s="152" t="s">
+      <c r="C115" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D115" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E115" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F115" s="52"/>
+      <c r="E115" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="68"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="82">
+      <c r="A116" s="59">
         <v>56</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="68" t="s">
         <v>243</v>
       </c>
       <c r="C116" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="E116" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F116" s="52"/>
+      <c r="E116" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="68"/>
     </row>
     <row r="117" ht="30" spans="1:6">
-      <c r="A117" s="82">
+      <c r="A117" s="59">
         <v>57</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="68" t="s">
         <v>246</v>
       </c>
       <c r="C117" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="D117" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F117" s="52"/>
+      <c r="E117" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="68"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="82">
-        <v>58</v>
-      </c>
-      <c r="B118" s="52" t="s">
+      <c r="A118" s="59">
+        <v>58</v>
+      </c>
+      <c r="B118" s="68" t="s">
         <v>248</v>
       </c>
       <c r="C118" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="E118" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="52"/>
+      <c r="E118" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" s="68"/>
     </row>
     <row r="119" ht="45" spans="1:6">
-      <c r="A119" s="82">
+      <c r="A119" s="59">
         <v>59</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="68" t="s">
         <v>251</v>
       </c>
       <c r="C119" s="34" t="s">
@@ -6221,132 +5758,132 @@
       <c r="D119" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E119" s="91" t="s">
+      <c r="E119" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F119" s="52"/>
+      <c r="F119" s="68"/>
     </row>
     <row r="120" ht="75" spans="1:6">
-      <c r="A120" s="82">
+      <c r="A120" s="59">
         <v>60</v>
       </c>
-      <c r="B120" s="52" t="s">
+      <c r="B120" s="68" t="s">
         <v>254</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D120" s="52" t="s">
+      <c r="D120" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E120" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F120" s="52"/>
+      <c r="E120" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" s="68"/>
     </row>
     <row r="121" ht="60" spans="1:6">
-      <c r="A121" s="82">
+      <c r="A121" s="59">
         <v>61</v>
       </c>
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="68" t="s">
         <v>257</v>
       </c>
       <c r="C121" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="52" t="s">
+      <c r="D121" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E121" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F121" s="52"/>
+      <c r="E121" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" s="68"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="82">
+      <c r="A122" s="59">
         <v>62</v>
       </c>
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="68" t="s">
         <v>259</v>
       </c>
       <c r="C122" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E122" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F122" s="52"/>
+      <c r="E122" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F122" s="68"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="82">
+      <c r="A123" s="59">
         <v>63</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="B123" s="68" t="s">
         <v>261</v>
       </c>
       <c r="C123" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="E123" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F123" s="52"/>
+      <c r="E123" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F123" s="68"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="82"/>
-      <c r="B124" s="52"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="68"/>
       <c r="C124" s="34"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="91"/>
-      <c r="F124" s="52"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="68"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="82"/>
-      <c r="B125" s="114" t="s">
+      <c r="A125" s="59"/>
+      <c r="B125" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C125" s="115"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="116"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="93"/>
+      <c r="E125" s="93"/>
+      <c r="F125" s="94"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="82"/>
-      <c r="B126" s="52"/>
+      <c r="A126" s="59"/>
+      <c r="B126" s="68"/>
       <c r="C126" s="34"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="91"/>
-      <c r="F126" s="52"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="68"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="82">
+      <c r="A127" s="59">
         <v>64</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="68" t="s">
         <v>265</v>
       </c>
       <c r="C127" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D127" s="52" t="s">
+      <c r="D127" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E127" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F127" s="52"/>
+      <c r="E127" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F127" s="68"/>
     </row>
     <row r="128" ht="30" spans="1:6">
-      <c r="A128" s="82">
+      <c r="A128" s="59">
         <v>65</v>
       </c>
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="68" t="s">
         <v>267</v>
       </c>
       <c r="C128" s="34" t="s">
@@ -6355,16 +5892,16 @@
       <c r="D128" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E128" s="91" t="s">
+      <c r="E128" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F128" s="52"/>
+      <c r="F128" s="68"/>
     </row>
     <row r="129" ht="42" customHeight="1" spans="1:6">
-      <c r="A129" s="82">
+      <c r="A129" s="59">
         <v>66</v>
       </c>
-      <c r="B129" s="52" t="s">
+      <c r="B129" s="68" t="s">
         <v>270</v>
       </c>
       <c r="C129" s="34" t="s">
@@ -6373,52 +5910,52 @@
       <c r="D129" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E129" s="91" t="s">
+      <c r="E129" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F129" s="52"/>
+      <c r="F129" s="68"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="82">
+      <c r="A130" s="59">
         <v>67</v>
       </c>
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="68" t="s">
         <v>273</v>
       </c>
       <c r="C130" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D130" s="52" t="s">
+      <c r="D130" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E130" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F130" s="52"/>
+      <c r="E130" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="68"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="82">
+      <c r="A131" s="59">
         <v>68</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="68" t="s">
         <v>275</v>
       </c>
       <c r="C131" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D131" s="52" t="s">
+      <c r="D131" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E131" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="52"/>
+      <c r="E131" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="68"/>
     </row>
     <row r="132" ht="30" spans="1:6">
-      <c r="A132" s="82">
+      <c r="A132" s="59">
         <v>69</v>
       </c>
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="68" t="s">
         <v>276</v>
       </c>
       <c r="C132" s="34" t="s">
@@ -6427,34 +5964,34 @@
       <c r="D132" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E132" s="91" t="s">
+      <c r="E132" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F132" s="52"/>
+      <c r="F132" s="68"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="82">
+      <c r="A133" s="59">
         <v>70</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C133" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D133" s="52" t="s">
+      <c r="D133" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E133" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="52"/>
+      <c r="E133" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="68"/>
     </row>
     <row r="134" ht="45" spans="1:6">
-      <c r="A134" s="82">
+      <c r="A134" s="59">
         <v>71</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="68" t="s">
         <v>278</v>
       </c>
       <c r="C134" s="34" t="s">
@@ -6463,34 +6000,34 @@
       <c r="D134" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E134" s="91" t="s">
+      <c r="E134" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F134" s="52"/>
+      <c r="F134" s="68"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="82">
+      <c r="A135" s="59">
         <v>72</v>
       </c>
-      <c r="B135" s="52" t="s">
+      <c r="B135" s="68" t="s">
         <v>279</v>
       </c>
       <c r="C135" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D135" s="52" t="s">
+      <c r="D135" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E135" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F135" s="52"/>
+      <c r="E135" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="68"/>
     </row>
     <row r="136" ht="30" spans="1:6">
-      <c r="A136" s="82">
+      <c r="A136" s="59">
         <v>73</v>
       </c>
-      <c r="B136" s="52" t="s">
+      <c r="B136" s="68" t="s">
         <v>280</v>
       </c>
       <c r="C136" s="34" t="s">
@@ -6499,150 +6036,150 @@
       <c r="D136" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E136" s="91" t="s">
+      <c r="E136" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F136" s="52"/>
+      <c r="F136" s="68"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="82">
+      <c r="A137" s="59">
         <v>74</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="68" t="s">
         <v>281</v>
       </c>
       <c r="C137" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D137" s="52" t="s">
+      <c r="D137" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E137" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F137" s="52"/>
+      <c r="E137" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" s="68"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="82">
+      <c r="A138" s="59">
         <v>75</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="68" t="s">
         <v>282</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D138" s="52" t="s">
+      <c r="D138" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E138" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F138" s="52"/>
+      <c r="E138" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F138" s="68"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="82"/>
-      <c r="B139" s="52"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="68"/>
       <c r="C139" s="34"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="91"/>
-      <c r="F139" s="52"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="68"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="82"/>
-      <c r="B140" s="114" t="s">
+      <c r="A140" s="59"/>
+      <c r="B140" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="C140" s="115"/>
-      <c r="D140" s="115"/>
-      <c r="E140" s="115"/>
-      <c r="F140" s="116"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="94"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="82"/>
-      <c r="B141" s="52"/>
+      <c r="A141" s="59"/>
+      <c r="B141" s="68"/>
       <c r="C141" s="34"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="91"/>
-      <c r="F141" s="52"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="68"/>
     </row>
     <row r="142" ht="45" spans="1:6">
-      <c r="A142" s="82">
+      <c r="A142" s="59">
         <v>76</v>
       </c>
-      <c r="B142" s="89" t="s">
+      <c r="B142" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C142" s="104" t="s">
+      <c r="C142" s="83" t="s">
         <v>185</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="E142" s="91" t="s">
+      <c r="E142" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F142" s="52"/>
+      <c r="F142" s="68"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="82">
+      <c r="A143" s="59">
         <v>77</v>
       </c>
-      <c r="B143" s="52" t="s">
+      <c r="B143" s="68" t="s">
         <v>285</v>
       </c>
       <c r="C143" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D143" s="52" t="s">
+      <c r="D143" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E143" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F143" s="52"/>
+      <c r="E143" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F143" s="68"/>
     </row>
     <row r="144" ht="30" spans="1:6">
-      <c r="A144" s="82">
+      <c r="A144" s="59">
         <v>78</v>
       </c>
-      <c r="B144" s="52" t="s">
+      <c r="B144" s="68" t="s">
         <v>286</v>
       </c>
       <c r="C144" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="52" t="s">
+      <c r="D144" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="E144" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F144" s="52"/>
+      <c r="E144" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="68"/>
     </row>
     <row r="145" ht="30" spans="1:6">
-      <c r="A145" s="82">
+      <c r="A145" s="59">
         <v>79</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="45" t="s">
+      <c r="C145" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E145" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="52"/>
+      <c r="E145" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F145" s="68"/>
     </row>
     <row r="146" ht="30" spans="1:6">
-      <c r="A146" s="82">
+      <c r="A146" s="59">
         <v>80</v>
       </c>
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="68" t="s">
         <v>289</v>
       </c>
       <c r="C146" s="34" t="s">
@@ -6651,16 +6188,16 @@
       <c r="D146" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="159" t="s">
+      <c r="E146" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="F146" s="52"/>
+      <c r="F146" s="68"/>
     </row>
     <row r="147" ht="30" spans="1:6">
-      <c r="A147" s="82">
+      <c r="A147" s="59">
         <v>81</v>
       </c>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="68" t="s">
         <v>292</v>
       </c>
       <c r="C147" s="34" t="s">
@@ -6669,16 +6206,16 @@
       <c r="D147" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E147" s="91" t="s">
+      <c r="E147" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F147" s="52"/>
+      <c r="F147" s="68"/>
     </row>
     <row r="148" ht="30" spans="1:6">
-      <c r="A148" s="82">
+      <c r="A148" s="59">
         <v>82</v>
       </c>
-      <c r="B148" s="52" t="s">
+      <c r="B148" s="68" t="s">
         <v>293</v>
       </c>
       <c r="C148" s="34" t="s">
@@ -6687,134 +6224,134 @@
       <c r="D148" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="E148" s="159" t="s">
+      <c r="E148" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="F148" s="52"/>
+      <c r="F148" s="68"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="82">
+      <c r="A149" s="59">
         <v>83</v>
       </c>
-      <c r="B149" s="52" t="s">
+      <c r="B149" s="68" t="s">
         <v>296</v>
       </c>
       <c r="C149" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D149" s="52" t="s">
+      <c r="D149" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E149" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F149" s="52"/>
+      <c r="E149" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F149" s="68"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="82">
+      <c r="A150" s="59">
         <v>84</v>
       </c>
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="68" t="s">
         <v>297</v>
       </c>
       <c r="C150" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D150" s="52" t="s">
+      <c r="D150" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E150" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F150" s="52"/>
+      <c r="E150" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F150" s="68"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="82">
+      <c r="A151" s="59">
         <v>85</v>
       </c>
-      <c r="B151" s="52"/>
+      <c r="B151" s="68"/>
       <c r="C151" s="34"/>
-      <c r="D151" s="52"/>
-      <c r="E151" s="91"/>
-      <c r="F151" s="52"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="68"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="82"/>
-      <c r="B152" s="114" t="s">
+      <c r="A152" s="59"/>
+      <c r="B152" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="C152" s="115"/>
-      <c r="D152" s="115"/>
-      <c r="E152" s="115"/>
-      <c r="F152" s="116"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="93"/>
+      <c r="E152" s="93"/>
+      <c r="F152" s="94"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="82"/>
-      <c r="B153" s="52"/>
+      <c r="A153" s="59"/>
+      <c r="B153" s="68"/>
       <c r="C153" s="34"/>
-      <c r="D153" s="52"/>
-      <c r="E153" s="91"/>
-      <c r="F153" s="52"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="70"/>
+      <c r="F153" s="68"/>
     </row>
     <row r="154" ht="45" spans="1:6">
-      <c r="A154" s="82">
+      <c r="A154" s="59">
         <v>86</v>
       </c>
-      <c r="B154" s="89" t="s">
+      <c r="B154" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="C154" s="152" t="s">
+      <c r="C154" s="33" t="s">
         <v>185</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E154" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F154" s="52"/>
+      <c r="E154" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F154" s="68"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="82">
+      <c r="A155" s="59">
         <v>87</v>
       </c>
-      <c r="B155" s="52" t="s">
+      <c r="B155" s="68" t="s">
         <v>300</v>
       </c>
       <c r="C155" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D155" s="52" t="s">
+      <c r="D155" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E155" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F155" s="52"/>
+      <c r="E155" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F155" s="68"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="82">
+      <c r="A156" s="59">
         <v>88</v>
       </c>
-      <c r="B156" s="52" t="s">
+      <c r="B156" s="68" t="s">
         <v>248</v>
       </c>
       <c r="C156" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="D156" s="52" t="s">
+      <c r="D156" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="E156" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F156" s="52"/>
+      <c r="E156" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F156" s="68"/>
     </row>
     <row r="157" ht="105" spans="1:6">
-      <c r="A157" s="171">
+      <c r="A157" s="145">
         <v>89</v>
       </c>
-      <c r="B157" s="52" t="s">
+      <c r="B157" s="68" t="s">
         <v>302</v>
       </c>
       <c r="C157" s="34" t="s">
@@ -6823,30 +6360,30 @@
       <c r="D157" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E157" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F157" s="52"/>
+      <c r="E157" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F157" s="68"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="172"/>
-      <c r="B158" s="52" t="s">
+      <c r="A158" s="146"/>
+      <c r="B158" s="68" t="s">
         <v>305</v>
       </c>
       <c r="C158" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D158" s="52" t="s">
+      <c r="D158" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="E158" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F158" s="52"/>
+      <c r="E158" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F158" s="68"/>
     </row>
     <row r="159" ht="45" spans="1:6">
-      <c r="A159" s="173"/>
-      <c r="B159" s="52" t="s">
+      <c r="A159" s="147"/>
+      <c r="B159" s="68" t="s">
         <v>125</v>
       </c>
       <c r="C159" s="34" t="s">
@@ -6855,68 +6392,68 @@
       <c r="D159" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="E159" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F159" s="52"/>
+      <c r="E159" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F159" s="68"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="82"/>
-      <c r="B160" s="52"/>
+      <c r="A160" s="59"/>
+      <c r="B160" s="68"/>
       <c r="C160" s="34"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="91"/>
-      <c r="F160" s="52"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="68"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="82"/>
-      <c r="B161" s="52"/>
+      <c r="A161" s="59"/>
+      <c r="B161" s="68"/>
       <c r="C161" s="34"/>
-      <c r="D161" s="52"/>
-      <c r="E161" s="91"/>
-      <c r="F161" s="52"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="70"/>
+      <c r="F161" s="68"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="82"/>
-      <c r="B162" s="114" t="s">
+      <c r="A162" s="59"/>
+      <c r="B162" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="C162" s="115"/>
-      <c r="D162" s="115"/>
-      <c r="E162" s="115"/>
-      <c r="F162" s="116"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="93"/>
+      <c r="F162" s="94"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="82"/>
-      <c r="B163" s="52"/>
+      <c r="A163" s="59"/>
+      <c r="B163" s="68"/>
       <c r="C163" s="34"/>
-      <c r="D163" s="52"/>
-      <c r="E163" s="91"/>
-      <c r="F163" s="52"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="68"/>
     </row>
     <row r="164" ht="30" spans="1:6">
-      <c r="A164" s="82">
+      <c r="A164" s="59">
         <v>94</v>
       </c>
-      <c r="B164" s="52" t="s">
+      <c r="B164" s="68" t="s">
         <v>311</v>
       </c>
       <c r="C164" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D164" s="52" t="s">
+      <c r="D164" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F164" s="52"/>
+      <c r="E164" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="68"/>
     </row>
     <row r="165" ht="30" spans="1:6">
-      <c r="A165" s="82">
+      <c r="A165" s="59">
         <v>95</v>
       </c>
-      <c r="B165" s="52" t="s">
+      <c r="B165" s="68" t="s">
         <v>313</v>
       </c>
       <c r="C165" s="34" t="s">
@@ -6925,16 +6462,16 @@
       <c r="D165" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="E165" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F165" s="52"/>
+      <c r="E165" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F165" s="68"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="171">
+      <c r="A166" s="145">
         <v>96</v>
       </c>
-      <c r="B166" s="52" t="s">
+      <c r="B166" s="68" t="s">
         <v>316</v>
       </c>
       <c r="C166" s="34" t="s">
@@ -6943,14 +6480,14 @@
       <c r="D166" t="s">
         <v>318</v>
       </c>
-      <c r="E166" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F166" s="52"/>
+      <c r="E166" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F166" s="68"/>
     </row>
     <row r="167" ht="90" customHeight="1" spans="1:6">
-      <c r="A167" s="172"/>
-      <c r="B167" s="52" t="s">
+      <c r="A167" s="146"/>
+      <c r="B167" s="68" t="s">
         <v>302</v>
       </c>
       <c r="C167" s="34" t="s">
@@ -6959,92 +6496,92 @@
       <c r="D167" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E167" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F167" s="52"/>
+      <c r="E167" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" s="68"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="172"/>
-      <c r="B168" s="52" t="s">
+      <c r="A168" s="146"/>
+      <c r="B168" s="68" t="s">
         <v>305</v>
       </c>
       <c r="C168" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="52" t="s">
+      <c r="D168" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="E168" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F168" s="52"/>
+      <c r="E168" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F168" s="68"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="173"/>
-      <c r="B169" s="52" t="s">
+      <c r="A169" s="147"/>
+      <c r="B169" s="68" t="s">
         <v>125</v>
       </c>
       <c r="C169" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="D169" s="52"/>
-      <c r="E169" s="91"/>
-      <c r="F169" s="52"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="68"/>
     </row>
     <row r="170" ht="45" spans="1:6">
-      <c r="A170" s="82">
+      <c r="A170" s="59">
         <v>97</v>
       </c>
-      <c r="B170" s="174" t="s">
+      <c r="B170" s="148" t="s">
         <v>319</v>
       </c>
-      <c r="C170" s="175" t="s">
+      <c r="C170" s="149" t="s">
         <v>320</v>
       </c>
       <c r="D170" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="E170" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F170" s="52"/>
+      <c r="E170" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F170" s="68"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="176"/>
-      <c r="B171" s="52"/>
+      <c r="A171" s="150"/>
+      <c r="B171" s="68"/>
       <c r="C171" s="34"/>
-      <c r="D171" s="52"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="52"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="130"/>
-      <c r="B172" s="131"/>
+      <c r="A172" s="107"/>
+      <c r="B172" s="108"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="130"/>
-      <c r="B173" s="131"/>
+      <c r="A173" s="107"/>
+      <c r="B173" s="108"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="130"/>
-      <c r="B174" s="131"/>
+      <c r="A174" s="107"/>
+      <c r="B174" s="108"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="177" t="s">
+      <c r="A175" s="151" t="s">
         <v>321</v>
       </c>
-      <c r="B175" s="178"/>
-      <c r="C175" s="178"/>
-      <c r="D175" s="178"/>
-      <c r="E175" s="178"/>
-      <c r="F175" s="178"/>
+      <c r="B175" s="152"/>
+      <c r="C175" s="152"/>
+      <c r="D175" s="152"/>
+      <c r="E175" s="152"/>
+      <c r="F175" s="152"/>
     </row>
     <row r="176" ht="60" spans="1:6">
-      <c r="A176" s="179">
+      <c r="A176" s="153">
         <v>98</v>
       </c>
-      <c r="B176" s="180" t="s">
+      <c r="B176" s="154" t="s">
         <v>322</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -7053,16 +6590,16 @@
       <c r="D176" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E176" s="181" t="s">
+      <c r="E176" s="155" t="s">
         <v>58</v>
       </c>
       <c r="F176" s="4"/>
     </row>
     <row r="177" ht="30" spans="1:6">
-      <c r="A177" s="179">
+      <c r="A177" s="153">
         <v>99</v>
       </c>
-      <c r="B177" s="180" t="s">
+      <c r="B177" s="154" t="s">
         <v>324</v>
       </c>
       <c r="C177" s="4" t="s">
@@ -7071,16 +6608,16 @@
       <c r="D177" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E177" s="181" t="s">
+      <c r="E177" s="155" t="s">
         <v>58</v>
       </c>
       <c r="F177" s="4"/>
     </row>
     <row r="178" ht="30" spans="1:6">
-      <c r="A178" s="179">
+      <c r="A178" s="153">
         <v>100</v>
       </c>
-      <c r="B178" s="180" t="s">
+      <c r="B178" s="154" t="s">
         <v>326</v>
       </c>
       <c r="C178" s="4" t="s">
@@ -7089,7 +6626,7 @@
       <c r="D178" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E178" s="181" t="s">
+      <c r="E178" s="155" t="s">
         <v>58</v>
       </c>
       <c r="F178" s="4"/>
@@ -7102,53 +6639,53 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="181" s="134" customFormat="1" spans="1:6">
-      <c r="A181" s="87" t="s">
+    <row r="181" s="111" customFormat="1" spans="1:6">
+      <c r="A181" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="B181" s="87" t="s">
+      <c r="B181" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C181" s="87" t="s">
+      <c r="C181" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D181" s="87" t="s">
+      <c r="D181" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="E181" s="78" t="s">
+      <c r="E181" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F181" s="78" t="s">
+      <c r="F181" s="53" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="182" ht="30" spans="1:6">
-      <c r="A182" s="182">
+      <c r="A182" s="156">
         <v>101</v>
       </c>
-      <c r="B182" s="124" t="s">
+      <c r="B182" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C182" s="126" t="s">
+      <c r="C182" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="D182" s="126" t="s">
+      <c r="D182" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="E182" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="F182" s="183"/>
+      <c r="E182" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F182" s="157"/>
     </row>
     <row r="183" ht="45" spans="1:6">
-      <c r="A183" s="179"/>
+      <c r="A183" s="153"/>
       <c r="B183" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C183" s="129" t="s">
+      <c r="C183" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D183" s="129" t="s">
+      <c r="D183" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E183" s="27" t="s">
@@ -7157,14 +6694,14 @@
       <c r="F183" s="3"/>
     </row>
     <row r="184" ht="30" spans="1:6">
-      <c r="A184" s="179"/>
+      <c r="A184" s="153"/>
       <c r="B184" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C184" s="129" t="s">
+      <c r="C184" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D184" s="129" t="s">
+      <c r="D184" s="106" t="s">
         <v>338</v>
       </c>
       <c r="E184" s="27" t="s">
@@ -7173,16 +6710,16 @@
       <c r="F184" s="3"/>
     </row>
     <row r="185" ht="45" spans="1:6">
-      <c r="A185" s="179">
+      <c r="A185" s="153">
         <v>102</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C185" s="129" t="s">
+      <c r="C185" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="D185" s="129" t="s">
+      <c r="D185" s="106" t="s">
         <v>341</v>
       </c>
       <c r="E185" s="27" t="s">
@@ -7191,14 +6728,14 @@
       <c r="F185" s="3"/>
     </row>
     <row r="186" ht="45" spans="1:6">
-      <c r="A186" s="179"/>
+      <c r="A186" s="153"/>
       <c r="B186" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C186" s="129" t="s">
+      <c r="C186" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D186" s="129" t="s">
+      <c r="D186" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E186" s="27" t="s">
@@ -7207,14 +6744,14 @@
       <c r="F186" s="3"/>
     </row>
     <row r="187" ht="30" spans="1:6">
-      <c r="A187" s="179"/>
+      <c r="A187" s="153"/>
       <c r="B187" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C187" s="129" t="s">
+      <c r="C187" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D187" s="129" t="s">
+      <c r="D187" s="106" t="s">
         <v>338</v>
       </c>
       <c r="E187" s="27" t="s">
@@ -7223,16 +6760,16 @@
       <c r="F187" s="3"/>
     </row>
     <row r="188" ht="45" spans="1:6">
-      <c r="A188" s="179">
+      <c r="A188" s="153">
         <v>103</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C188" s="129" t="s">
+      <c r="C188" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="D188" s="129" t="s">
+      <c r="D188" s="106" t="s">
         <v>346</v>
       </c>
       <c r="E188" s="27" t="s">
@@ -7241,14 +6778,14 @@
       <c r="F188" s="3"/>
     </row>
     <row r="189" ht="45" spans="1:6">
-      <c r="A189" s="179"/>
+      <c r="A189" s="153"/>
       <c r="B189" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C189" s="129" t="s">
+      <c r="C189" s="106" t="s">
         <v>348</v>
       </c>
-      <c r="D189" s="129" t="s">
+      <c r="D189" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E189" s="27" t="s">
@@ -7257,14 +6794,14 @@
       <c r="F189" s="3"/>
     </row>
     <row r="190" ht="30" spans="1:6">
-      <c r="A190" s="179"/>
+      <c r="A190" s="153"/>
       <c r="B190" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C190" s="129" t="s">
+      <c r="C190" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D190" s="129" t="s">
+      <c r="D190" s="106" t="s">
         <v>338</v>
       </c>
       <c r="E190" s="27" t="s">
@@ -7305,29 +6842,29 @@
   <sheetPr/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="79" customWidth="1"/>
-    <col min="2" max="2" width="87.5714285714286" style="79" customWidth="1"/>
-    <col min="3" max="3" width="62.7142857142857" style="79" customWidth="1"/>
-    <col min="4" max="4" width="35.2857142857143" style="79" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="79" customWidth="1"/>
-    <col min="6" max="6" width="35" style="79" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="79"/>
+    <col min="1" max="1" width="18.7142857142857" style="55" customWidth="1"/>
+    <col min="2" max="2" width="87.5714285714286" style="55" customWidth="1"/>
+    <col min="3" max="3" width="62.7142857142857" style="55" customWidth="1"/>
+    <col min="4" max="4" width="35.2857142857143" style="55" customWidth="1"/>
+    <col min="5" max="5" width="35.7142857142857" style="55" customWidth="1"/>
+    <col min="6" max="6" width="35" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" s="79" customFormat="1" ht="43" customHeight="1" spans="1:6">
-      <c r="A1" s="80" t="s">
+    <row r="1" s="55" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="34" t="s">
@@ -7336,29 +6873,29 @@
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" s="79" customFormat="1" spans="1:6">
-      <c r="A2" s="80" t="s">
+    <row r="2" s="55" customFormat="1" spans="1:6">
+      <c r="A2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" s="79" customFormat="1" spans="1:6">
+    <row r="6" s="55" customFormat="1" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -7368,296 +6905,296 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A7" s="82">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-    </row>
-    <row r="8" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A8" s="82">
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="57" t="s">
         <v>352</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-    </row>
-    <row r="9" s="79" customFormat="1" ht="30" spans="1:3">
-      <c r="A9" s="82">
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" s="55" customFormat="1" ht="30" spans="1:3">
+      <c r="A9" s="59">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="57" t="s">
         <v>353</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="79" customFormat="1" spans="1:6">
-      <c r="A10" s="82">
+    <row r="10" s="55" customFormat="1" spans="1:6">
+      <c r="A10" s="59">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-    </row>
-    <row r="11" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A11" s="82">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-    </row>
-    <row r="12" s="79" customFormat="1" spans="1:6">
-      <c r="A12" s="82">
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+    </row>
+    <row r="12" s="55" customFormat="1" spans="1:6">
+      <c r="A12" s="59">
         <v>6</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-    </row>
-    <row r="13" s="79" customFormat="1" spans="1:6">
-      <c r="A13" s="82">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" s="55" customFormat="1" spans="1:6">
+      <c r="A13" s="59">
         <v>7</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-    </row>
-    <row r="14" s="79" customFormat="1" spans="1:6">
-      <c r="A14" s="82">
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" s="55" customFormat="1" spans="1:6">
+      <c r="A14" s="59">
         <v>8</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-    </row>
-    <row r="15" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A15" s="82">
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="59">
         <v>9</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-    </row>
-    <row r="16" s="79" customFormat="1" spans="1:6">
-      <c r="A16" s="82">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+    </row>
+    <row r="16" s="55" customFormat="1" spans="1:6">
+      <c r="A16" s="59">
         <v>10</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-    </row>
-    <row r="17" s="79" customFormat="1" spans="1:6">
-      <c r="A17" s="82">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" s="55" customFormat="1" spans="1:6">
+      <c r="A17" s="59">
         <v>11</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-    </row>
-    <row r="18" s="79" customFormat="1" spans="1:6">
-      <c r="A18" s="82">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="18" s="55" customFormat="1" spans="1:6">
+      <c r="A18" s="59">
         <v>12</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-    </row>
-    <row r="19" s="79" customFormat="1" spans="1:6">
-      <c r="A19" s="82">
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+    </row>
+    <row r="19" s="55" customFormat="1" spans="1:6">
+      <c r="A19" s="59">
         <v>13</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-    </row>
-    <row r="20" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A20" s="82">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A20" s="59">
         <v>14</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-    </row>
-    <row r="21" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A21" s="82">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="59">
         <v>15</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-    </row>
-    <row r="22" s="79" customFormat="1" spans="3:6">
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-    </row>
-    <row r="23" s="79" customFormat="1" spans="3:6">
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-    </row>
-    <row r="24" s="79" customFormat="1" spans="3:6">
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-    </row>
-    <row r="25" s="79" customFormat="1" spans="3:6">
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-    </row>
-    <row r="26" s="79" customFormat="1" spans="3:6">
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-    </row>
-    <row r="27" s="79" customFormat="1" spans="3:6">
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-    </row>
-    <row r="28" s="79" customFormat="1" spans="1:6">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" s="55" customFormat="1" spans="3:6">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" s="55" customFormat="1" spans="3:6">
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" s="55" customFormat="1" spans="3:6">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" s="55" customFormat="1" spans="3:6">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" s="55" customFormat="1" spans="3:6">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" s="55" customFormat="1" spans="3:6">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" s="55" customFormat="1" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-    </row>
-    <row r="29" s="79" customFormat="1" spans="1:6">
-      <c r="A29" s="84">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" s="55" customFormat="1" spans="1:6">
+      <c r="A29" s="61">
         <v>1</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-    </row>
-    <row r="30" s="79" customFormat="1" spans="1:6">
-      <c r="A30" s="86">
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" s="55" customFormat="1" spans="1:6">
+      <c r="A30" s="63">
         <v>2</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-    </row>
-    <row r="31" s="79" customFormat="1" spans="1:2">
-      <c r="A31" s="86">
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="31" s="55" customFormat="1" spans="1:2">
+      <c r="A31" s="63">
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" s="79" customFormat="1" spans="1:2">
-      <c r="A32" s="86">
+    <row r="32" s="55" customFormat="1" spans="1:2">
+      <c r="A32" s="63">
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" s="79" customFormat="1" spans="1:2">
-      <c r="A33" s="86">
+    <row r="33" s="55" customFormat="1" spans="1:2">
+      <c r="A33" s="63">
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" s="79" customFormat="1" spans="1:2">
-      <c r="A34" s="86">
+    <row r="34" s="55" customFormat="1" spans="1:2">
+      <c r="A34" s="63">
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" s="79" customFormat="1" spans="1:2">
-      <c r="A35" s="86">
+    <row r="35" s="55" customFormat="1" spans="1:2">
+      <c r="A35" s="63">
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7665,81 +7202,81 @@
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
     </row>
     <row r="37" customFormat="1" spans="1:2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
     </row>
     <row r="38" customFormat="1" spans="1:2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-    </row>
-    <row r="40" s="79" customFormat="1" spans="6:6">
-      <c r="F40" s="81"/>
-    </row>
-    <row r="41" s="79" customFormat="1" spans="1:6">
-      <c r="A41" s="87" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+    </row>
+    <row r="40" s="55" customFormat="1" spans="6:6">
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" s="55" customFormat="1" spans="1:6">
+      <c r="A41" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" s="79" customFormat="1" spans="1:6">
-      <c r="A42" s="88">
+    <row r="42" s="55" customFormat="1" spans="1:6">
+      <c r="A42" s="66">
         <v>1</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="68" t="s">
         <v>371</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="E42" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="91"/>
-    </row>
-    <row r="43" s="79" customFormat="1" spans="1:6">
-      <c r="A43" s="92">
+      <c r="E42" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="70"/>
+    </row>
+    <row r="43" s="55" customFormat="1" spans="1:6">
+      <c r="A43" s="71">
         <v>2</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="E43" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="91"/>
-    </row>
-    <row r="44" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A44" s="94">
+      <c r="E43" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="70"/>
+    </row>
+    <row r="44" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A44" s="73">
         <v>3</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="74" t="s">
         <v>376</v>
       </c>
       <c r="C44" s="34" t="s">
@@ -7748,47 +7285,47 @@
       <c r="D44" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="E44" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="91"/>
-    </row>
-    <row r="45" s="79" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A45" s="96"/>
-      <c r="B45" s="95" t="s">
+      <c r="E44" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="70"/>
+    </row>
+    <row r="45" s="55" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A45" s="75"/>
+      <c r="B45" s="74" t="s">
         <v>379</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="E45" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="91"/>
-    </row>
-    <row r="46" s="79" customFormat="1" spans="1:6">
-      <c r="A46" s="92">
+      <c r="E45" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="70"/>
+    </row>
+    <row r="46" s="55" customFormat="1" spans="1:6">
+      <c r="A46" s="71">
         <v>4</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="E46" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="91"/>
-    </row>
-    <row r="47" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="92">
+      <c r="E46" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="70"/>
+    </row>
+    <row r="47" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="71">
         <v>5</v>
       </c>
       <c r="B47" s="34" t="s">
@@ -7797,16 +7334,16 @@
       <c r="C47" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="D47" s="53" t="s">
+      <c r="D47" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="E47" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="91"/>
-    </row>
-    <row r="48" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="92">
+      <c r="E47" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="70"/>
+    </row>
+    <row r="48" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A48" s="71">
         <v>6</v>
       </c>
       <c r="B48" s="34" t="s">
@@ -7815,37 +7352,37 @@
       <c r="C48" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="E48" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="91"/>
-    </row>
-    <row r="49" s="79" customFormat="1" spans="1:6">
-      <c r="A49" s="92">
+      <c r="E48" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="70"/>
+    </row>
+    <row r="49" s="55" customFormat="1" spans="1:6">
+      <c r="A49" s="71">
         <v>8</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="68" t="s">
         <v>389</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="E49" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="91"/>
-    </row>
-    <row r="50" s="79" customFormat="1" ht="75" spans="1:6">
-      <c r="A50" s="92">
+      <c r="E49" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="70"/>
+    </row>
+    <row r="50" s="55" customFormat="1" ht="75" spans="1:6">
+      <c r="A50" s="71">
         <v>9</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="68" t="s">
         <v>391</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -7854,93 +7391,93 @@
       <c r="D50" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="91"/>
-    </row>
-    <row r="51" s="79" customFormat="1" spans="1:6">
-      <c r="A51" s="92">
+      <c r="E50" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="70"/>
+    </row>
+    <row r="51" s="55" customFormat="1" spans="1:6">
+      <c r="A51" s="71">
         <v>10</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="69" t="s">
         <v>393</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="69" t="s">
         <v>394</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="E51" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="91"/>
-    </row>
-    <row r="52" s="79" customFormat="1" spans="1:6">
-      <c r="A52" s="92">
+      <c r="E51" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="70"/>
+    </row>
+    <row r="52" s="55" customFormat="1" spans="1:6">
+      <c r="A52" s="71">
         <v>11</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="69" t="s">
         <v>396</v>
       </c>
-      <c r="C52" s="90" t="s">
+      <c r="C52" s="69" t="s">
         <v>394</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="E52" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="91"/>
-    </row>
-    <row r="53" s="79" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A53" s="92">
+      <c r="E52" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="70"/>
+    </row>
+    <row r="53" s="55" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A53" s="71">
         <v>12</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="E53" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="91"/>
-    </row>
-    <row r="54" s="79" customFormat="1" spans="1:6">
-      <c r="A54" s="97"/>
+      <c r="E53" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="70"/>
+    </row>
+    <row r="54" s="55" customFormat="1" spans="1:6">
+      <c r="A54" s="76"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-    </row>
-    <row r="55" s="79" customFormat="1" spans="1:6">
-      <c r="A55" s="98"/>
-      <c r="B55" s="99" t="s">
+      <c r="D54" s="57"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+    </row>
+    <row r="55" s="55" customFormat="1" spans="1:6">
+      <c r="A55" s="77"/>
+      <c r="B55" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101"/>
-    </row>
-    <row r="56" s="79" customFormat="1" spans="1:6">
-      <c r="A56" s="98"/>
-      <c r="B56" s="52"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="80"/>
+    </row>
+    <row r="56" s="55" customFormat="1" spans="1:6">
+      <c r="A56" s="77"/>
+      <c r="B56" s="68"/>
       <c r="C56" s="33"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-    </row>
-    <row r="57" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A57" s="98">
+      <c r="D56" s="57"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+    </row>
+    <row r="57" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A57" s="77">
         <v>15</v>
       </c>
       <c r="B57" s="33" t="s">
@@ -7952,32 +7489,32 @@
       <c r="D57" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="E57" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="91"/>
-    </row>
-    <row r="58" s="79" customFormat="1" spans="1:6">
-      <c r="A58" s="102"/>
+      <c r="E57" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="70"/>
+    </row>
+    <row r="58" s="55" customFormat="1" spans="1:6">
+      <c r="A58" s="81"/>
       <c r="B58" s="33" t="s">
         <v>403</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="E58" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="91"/>
-    </row>
-    <row r="59" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A59" s="88">
+      <c r="E58" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="70"/>
+    </row>
+    <row r="59" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A59" s="66">
         <v>16</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="55" t="s">
         <v>406</v>
       </c>
       <c r="C59" s="34" t="s">
@@ -7986,13 +7523,13 @@
       <c r="D59" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="91"/>
-    </row>
-    <row r="60" s="79" customFormat="1" ht="75" spans="1:6">
-      <c r="A60" s="92">
+      <c r="E59" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="70"/>
+    </row>
+    <row r="60" s="55" customFormat="1" ht="75" spans="1:6">
+      <c r="A60" s="71">
         <v>17</v>
       </c>
       <c r="B60" s="34" t="s">
@@ -8004,86 +7541,86 @@
       <c r="D60" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="E60" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="91"/>
-    </row>
-    <row r="61" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A61" s="103">
+      <c r="E60" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="70"/>
+    </row>
+    <row r="61" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A61" s="82">
         <v>18</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="83" t="s">
         <v>410</v>
       </c>
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="68" t="s">
         <v>411</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="E61" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="91"/>
-    </row>
-    <row r="62" s="79" customFormat="1" spans="1:6">
-      <c r="A62" s="106"/>
-      <c r="B62" s="52" t="s">
+      <c r="E61" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="70"/>
+    </row>
+    <row r="62" s="55" customFormat="1" spans="1:6">
+      <c r="A62" s="84"/>
+      <c r="B62" s="68" t="s">
         <v>413</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="E62" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="91"/>
-    </row>
-    <row r="63" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A63" s="107">
+      <c r="E62" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="70"/>
+    </row>
+    <row r="63" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A63" s="85">
         <v>19</v>
       </c>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="86" t="s">
         <v>415</v>
       </c>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="87" t="s">
         <v>416</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="E63" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="91"/>
-    </row>
-    <row r="64" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="110">
+      <c r="E63" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="70"/>
+    </row>
+    <row r="64" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A64" s="88">
         <v>20</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="C64" s="111" t="s">
+      <c r="C64" s="89" t="s">
         <v>419</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E64" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="91"/>
-    </row>
-    <row r="65" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A65" s="88">
+      <c r="E64" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="70"/>
+    </row>
+    <row r="65" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A65" s="66">
         <v>21</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="90" t="s">
         <v>421</v>
       </c>
       <c r="C65" s="33" t="s">
@@ -8092,96 +7629,96 @@
       <c r="D65" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="E65" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F65" s="91"/>
-    </row>
-    <row r="66" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A66" s="88">
+      <c r="E65" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="70"/>
+    </row>
+    <row r="66" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A66" s="66">
         <v>22</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="68" t="s">
         <v>249</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E66" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66" s="91"/>
-    </row>
-    <row r="67" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A67" s="88">
+      <c r="E66" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="70"/>
+    </row>
+    <row r="67" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A67" s="66">
         <v>23</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="68" t="s">
         <v>427</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="E67" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="91"/>
-    </row>
-    <row r="68" s="79" customFormat="1" spans="1:6">
-      <c r="A68" s="88">
+      <c r="E67" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="70"/>
+    </row>
+    <row r="68" s="55" customFormat="1" spans="1:6">
+      <c r="A68" s="66">
         <v>24</v>
       </c>
-      <c r="B68" s="113" t="s">
+      <c r="B68" s="91" t="s">
         <v>429</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="E68" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="91"/>
-    </row>
-    <row r="69" s="79" customFormat="1" spans="1:6">
-      <c r="A69" s="88"/>
-      <c r="B69" s="113"/>
+      <c r="E68" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" s="55" customFormat="1" spans="1:6">
+      <c r="A69" s="66"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="33"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-    </row>
-    <row r="70" s="79" customFormat="1" spans="1:6">
-      <c r="A70" s="88"/>
-      <c r="B70" s="114" t="s">
+      <c r="D69" s="57"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+    </row>
+    <row r="70" s="55" customFormat="1" spans="1:6">
+      <c r="A70" s="66"/>
+      <c r="B70" s="92" t="s">
         <v>432</v>
       </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="116"/>
-    </row>
-    <row r="71" s="79" customFormat="1" spans="1:6">
-      <c r="A71" s="88"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-    </row>
-    <row r="72" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A72" s="88">
+      <c r="C70" s="93"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="94"/>
+    </row>
+    <row r="71" s="55" customFormat="1" spans="1:6">
+      <c r="A71" s="66"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+    </row>
+    <row r="72" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A72" s="66">
         <v>25</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="68" t="s">
         <v>297</v>
       </c>
       <c r="C72" s="33" t="s">
@@ -8190,16 +7727,16 @@
       <c r="D72" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="E72" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F72" s="91"/>
-    </row>
-    <row r="73" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A73" s="88">
+      <c r="E72" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="70"/>
+    </row>
+    <row r="73" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A73" s="66">
         <v>26</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="68" t="s">
         <v>391</v>
       </c>
       <c r="C73" s="33" t="s">
@@ -8208,16 +7745,16 @@
       <c r="D73" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="E73" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="91"/>
-    </row>
-    <row r="74" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A74" s="88">
+      <c r="E73" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="70"/>
+    </row>
+    <row r="74" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A74" s="66">
         <v>27</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="68" t="s">
         <v>436</v>
       </c>
       <c r="C74" s="33" t="s">
@@ -8226,16 +7763,16 @@
       <c r="D74" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="E74" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="91"/>
-    </row>
-    <row r="75" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A75" s="88">
+      <c r="E74" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="70"/>
+    </row>
+    <row r="75" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A75" s="66">
         <v>29</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="68" t="s">
         <v>439</v>
       </c>
       <c r="C75" s="33" t="s">
@@ -8244,16 +7781,16 @@
       <c r="D75" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="E75" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="91"/>
-    </row>
-    <row r="76" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A76" s="88">
+      <c r="E75" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="70"/>
+    </row>
+    <row r="76" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A76" s="66">
         <v>30</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="68" t="s">
         <v>441</v>
       </c>
       <c r="C76" s="33" t="s">
@@ -8262,276 +7799,277 @@
       <c r="D76" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F76" s="91"/>
-    </row>
-    <row r="77" s="79" customFormat="1" spans="1:6">
-      <c r="A77" s="88">
+      <c r="F76" s="70"/>
+    </row>
+    <row r="77" s="55" customFormat="1" spans="1:6">
+      <c r="A77" s="66">
         <v>31</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="68" t="s">
         <v>444</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="D77" s="53" t="s">
+      <c r="D77" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="E77" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F77" s="91"/>
-    </row>
-    <row r="78" s="79" customFormat="1" spans="1:6">
-      <c r="A78" s="88">
+      <c r="E77" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="70"/>
+    </row>
+    <row r="78" s="55" customFormat="1" spans="1:6">
+      <c r="A78" s="66">
         <v>32</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="68" t="s">
         <v>446</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="E78" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78" s="91"/>
-    </row>
-    <row r="79" s="79" customFormat="1" spans="1:6">
-      <c r="A79" s="88">
+      <c r="E78" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="70"/>
+    </row>
+    <row r="79" s="55" customFormat="1" spans="1:6">
+      <c r="A79" s="66">
         <v>33</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="68" t="s">
         <v>447</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D79" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="E79" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F79" s="91"/>
-    </row>
-    <row r="80" s="79" customFormat="1" spans="1:6">
-      <c r="A80" s="92"/>
-      <c r="B80" s="52"/>
+      <c r="E79" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="70"/>
+    </row>
+    <row r="80" s="55" customFormat="1" spans="1:6">
+      <c r="A80" s="71"/>
+      <c r="B80" s="68"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-    </row>
-    <row r="81" s="79" customFormat="1" spans="1:5">
-      <c r="A81" s="117" t="s">
+      <c r="D80" s="57"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+    </row>
+    <row r="81" s="55" customFormat="1" spans="1:6">
+      <c r="A81" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="B81" s="118"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="118"/>
-      <c r="E81" s="118"/>
-    </row>
-    <row r="82" s="79" customFormat="1" ht="60" spans="1:6">
-      <c r="A82" s="119">
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="95"/>
+    </row>
+    <row r="82" s="55" customFormat="1" ht="60" spans="1:6">
+      <c r="A82" s="96">
         <v>35</v>
       </c>
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="D82" s="61" t="s">
+      <c r="D82" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="E82" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" s="122"/>
-    </row>
-    <row r="83" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A83" s="119">
+      <c r="E82" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="86"/>
+    </row>
+    <row r="83" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A83" s="96">
         <v>36</v>
       </c>
-      <c r="B83" s="121" t="s">
+      <c r="B83" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="D83" s="61" t="s">
+      <c r="D83" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="E83" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="122"/>
-    </row>
-    <row r="84" s="79" customFormat="1" spans="1:5">
+      <c r="E83" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" s="86"/>
+    </row>
+    <row r="84" s="55" customFormat="1" spans="1:5">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
     </row>
-    <row r="85" s="79" customFormat="1" spans="1:5">
+    <row r="85" s="55" customFormat="1" spans="1:5">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" s="79" customFormat="1" spans="1:6">
-      <c r="A86" s="87" t="s">
+    <row r="86" s="55" customFormat="1" spans="1:6">
+      <c r="A86" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="87" t="s">
+      <c r="B86" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="C86" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="87" t="s">
+      <c r="D86" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="E86" s="78" t="s">
+      <c r="E86" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="78" t="s">
+      <c r="F86" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A87" s="123">
+    <row r="87" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A87" s="100">
         <v>37</v>
       </c>
-      <c r="B87" s="124" t="s">
+      <c r="B87" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C87" s="125" t="s">
+      <c r="C87" s="102" t="s">
         <v>449</v>
       </c>
-      <c r="D87" s="126" t="s">
+      <c r="D87" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="E87" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="108"/>
-    </row>
-    <row r="88" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A88" s="128"/>
+      <c r="E87" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="86"/>
+    </row>
+    <row r="88" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A88" s="105"/>
       <c r="B88" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="129" t="s">
+      <c r="C88" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D88" s="129" t="s">
+      <c r="D88" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="108"/>
-    </row>
-    <row r="89" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A89" s="128"/>
+      <c r="F88" s="86"/>
+    </row>
+    <row r="89" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A89" s="105"/>
       <c r="B89" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C89" s="129" t="s">
+      <c r="C89" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D89" s="129" t="s">
+      <c r="D89" s="106" t="s">
         <v>338</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="108"/>
-    </row>
-    <row r="90" s="79" customFormat="1" ht="45" spans="1:6">
-      <c r="A90" s="128">
+      <c r="F89" s="86"/>
+    </row>
+    <row r="90" s="55" customFormat="1" ht="45" spans="1:6">
+      <c r="A90" s="105">
         <v>38</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C90" s="129" t="s">
+      <c r="C90" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="D90" s="129" t="s">
+      <c r="D90" s="106" t="s">
         <v>346</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F90" s="108"/>
-    </row>
-    <row r="91" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A91" s="128"/>
+      <c r="F90" s="86"/>
+    </row>
+    <row r="91" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A91" s="105"/>
       <c r="B91" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="129" t="s">
+      <c r="C91" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D91" s="129" t="s">
+      <c r="D91" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E91" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="108"/>
-    </row>
-    <row r="92" s="79" customFormat="1" ht="30" spans="1:6">
-      <c r="A92" s="128"/>
+      <c r="F91" s="86"/>
+    </row>
+    <row r="92" s="55" customFormat="1" ht="30" spans="1:6">
+      <c r="A92" s="105"/>
       <c r="B92" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C92" s="129" t="s">
+      <c r="C92" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="D92" s="129" t="s">
+      <c r="D92" s="106" t="s">
         <v>338</v>
       </c>
       <c r="E92" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="108"/>
-    </row>
-    <row r="93" s="79" customFormat="1" spans="1:4">
-      <c r="A93" s="130"/>
-      <c r="B93" s="131"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="130"/>
-    </row>
-    <row r="94" s="79" customFormat="1" spans="1:4">
-      <c r="A94" s="130"/>
-      <c r="B94" s="131"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="130"/>
-    </row>
-    <row r="95" s="79" customFormat="1" spans="1:4">
-      <c r="A95" s="133"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="133"/>
-      <c r="D95" s="133"/>
+      <c r="F92" s="86"/>
+    </row>
+    <row r="93" s="55" customFormat="1" spans="1:4">
+      <c r="A93" s="107"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="107"/>
+    </row>
+    <row r="94" s="55" customFormat="1" spans="1:4">
+      <c r="A94" s="107"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="107"/>
+    </row>
+    <row r="95" s="55" customFormat="1" spans="1:4">
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B70:F70"/>
-    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A81:F81"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A61:A62"/>
@@ -8549,8 +8087,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -8595,15 +8133,15 @@
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" s="30" customFormat="1" spans="1:3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -8611,10 +8149,10 @@
       </c>
     </row>
     <row r="7" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A7" s="44">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>451</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -8622,7 +8160,7 @@
       </c>
     </row>
     <row r="8" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A8" s="44">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -8633,19 +8171,19 @@
       </c>
     </row>
     <row r="9" s="30" customFormat="1" spans="1:2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="11" s="30" customFormat="1" spans="1:2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" s="30" customFormat="1" spans="1:2">
-      <c r="A12" s="44">
+      <c r="A12" s="37">
         <v>1</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -8653,39 +8191,39 @@
       </c>
     </row>
     <row r="13" s="30" customFormat="1" spans="1:2">
-      <c r="A13" s="44">
+      <c r="A13" s="37">
         <v>2</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="34" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="14" s="30" customFormat="1" spans="1:2">
-      <c r="A14" s="44">
+      <c r="A14" s="37">
         <v>3</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" s="30" customFormat="1" spans="1:2">
-      <c r="A15" s="44">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" s="30" customFormat="1" spans="1:2">
-      <c r="A16" s="44">
+      <c r="A16" s="37">
         <v>5</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" s="30" customFormat="1" spans="1:2">
-      <c r="A17" s="44">
+      <c r="A17" s="37">
         <v>6</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -8693,34 +8231,34 @@
       </c>
     </row>
     <row r="18" s="30" customFormat="1" spans="1:2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="32"/>
     </row>
     <row r="21" s="30" customFormat="1" spans="1:6">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" s="30" customFormat="1" spans="1:6">
-      <c r="A22" s="50">
+      <c r="A22" s="47">
         <v>1</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="54" t="s">
         <v>456</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -8729,16 +8267,16 @@
       <c r="D22" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="32"/>
     </row>
     <row r="23" s="30" customFormat="1" spans="1:6">
-      <c r="A23" s="50">
+      <c r="A23" s="47">
         <v>2</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="54" t="s">
         <v>459</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -8747,175 +8285,175 @@
       <c r="D23" s="32" t="s">
         <v>461</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="32"/>
     </row>
     <row r="24" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="50">
+      <c r="A24" s="47">
         <v>3</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="38" t="s">
         <v>463</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="32"/>
     </row>
     <row r="25" s="30" customFormat="1" ht="37" customHeight="1" spans="1:6">
-      <c r="A25" s="50">
+      <c r="A25" s="47">
         <v>4</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="32"/>
     </row>
     <row r="26" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="50">
+      <c r="A26" s="47">
         <v>5</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>468</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="32"/>
     </row>
     <row r="27" s="30" customFormat="1" spans="1:6">
-      <c r="A27" s="50">
+      <c r="A27" s="47">
         <v>6</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>471</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="32"/>
     </row>
     <row r="28" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="50">
+      <c r="A28" s="47">
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>474</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="32"/>
     </row>
     <row r="29" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="50">
+      <c r="A29" s="47">
         <v>8</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="32"/>
     </row>
     <row r="30" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="50">
+      <c r="A30" s="47">
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>480</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="32"/>
     </row>
     <row r="31" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A31" s="50">
+      <c r="A31" s="47">
         <v>10</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="74"/>
+      <c r="A32" s="49"/>
     </row>
     <row r="33" s="30" customFormat="1" spans="1:1">
-      <c r="A33" s="74"/>
+      <c r="A33" s="49"/>
     </row>
     <row r="43" s="30" customFormat="1" spans="3:3">
-      <c r="C43" s="75"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="48" s="30" customFormat="1" spans="3:3">
-      <c r="C48" s="75"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="55" s="30" customFormat="1" spans="3:3">
-      <c r="C55" s="75"/>
+      <c r="C55" s="50"/>
     </row>
     <row r="58" s="30" customFormat="1" spans="3:3">
-      <c r="C58" s="75"/>
+      <c r="C58" s="50"/>
     </row>
     <row r="67" s="30" customFormat="1" spans="3:3">
-      <c r="C67" s="75"/>
+      <c r="C67" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8931,8 +8469,8 @@
   <sheetPr/>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8982,15 +8520,15 @@
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" s="30" customFormat="1" spans="1:3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -8998,10 +8536,10 @@
       </c>
     </row>
     <row r="7" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A7" s="44">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>487</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -9009,7 +8547,7 @@
       </c>
     </row>
     <row r="8" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A8" s="44">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -9020,27 +8558,27 @@
       </c>
     </row>
     <row r="9" s="30" customFormat="1" spans="1:2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
     </row>
     <row r="10" s="30" customFormat="1" spans="1:2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" s="30" customFormat="1" spans="1:2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
     </row>
     <row r="14" s="30" customFormat="1" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" s="30" customFormat="1" spans="1:2">
-      <c r="A15" s="44">
+      <c r="A15" s="37">
         <v>1</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -9048,39 +8586,39 @@
       </c>
     </row>
     <row r="16" s="30" customFormat="1" spans="1:2">
-      <c r="A16" s="44">
+      <c r="A16" s="37">
         <v>2</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="34" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" s="30" customFormat="1" spans="1:2">
-      <c r="A17" s="44">
+      <c r="A17" s="37">
         <v>3</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" s="30" customFormat="1" spans="1:2">
-      <c r="A18" s="44">
+      <c r="A18" s="37">
         <v>4</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" s="30" customFormat="1" spans="1:2">
-      <c r="A19" s="44">
+      <c r="A19" s="37">
         <v>5</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" s="30" customFormat="1" spans="1:2">
-      <c r="A20" s="44">
+      <c r="A20" s="37">
         <v>6</v>
       </c>
       <c r="B20" s="32" t="s">
@@ -9088,8 +8626,8 @@
       </c>
     </row>
     <row r="21" s="30" customFormat="1" spans="1:2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="24" s="30" customFormat="1" spans="1:7">
       <c r="A24" s="31" t="s">
@@ -9110,28 +8648,28 @@
       <c r="F24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" s="30" customFormat="1" spans="1:6">
-      <c r="A25" s="69">
+      <c r="A25" s="43">
         <v>1</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="45" t="s">
         <v>457</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="E25" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="71"/>
+      <c r="E25" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="50">
+      <c r="A26" s="47">
         <v>2</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -9140,122 +8678,122 @@
       <c r="C26" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="32"/>
     </row>
     <row r="27" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="50">
+      <c r="A27" s="47">
         <v>3</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>496</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F27" s="32"/>
     </row>
     <row r="28" s="30" customFormat="1" ht="37" customHeight="1" spans="1:6">
-      <c r="A28" s="50">
+      <c r="A28" s="47">
         <v>4</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>498</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="32"/>
     </row>
     <row r="29" s="30" customFormat="1" spans="1:6">
-      <c r="A29" s="50">
+      <c r="A29" s="47">
         <v>5</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>501</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="32"/>
     </row>
     <row r="30" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="50"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>504</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="32"/>
     </row>
     <row r="31" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="50">
+      <c r="A31" s="47">
         <v>7</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="48" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="74"/>
+      <c r="A32" s="49"/>
     </row>
     <row r="33" s="30" customFormat="1" spans="1:1">
-      <c r="A33" s="74"/>
+      <c r="A33" s="49"/>
     </row>
     <row r="43" s="30" customFormat="1" spans="3:3">
-      <c r="C43" s="75"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="48" s="30" customFormat="1" spans="3:3">
-      <c r="C48" s="75"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="55" s="30" customFormat="1" spans="3:3">
-      <c r="C55" s="75"/>
+      <c r="C55" s="50"/>
     </row>
     <row r="58" s="30" customFormat="1" spans="3:3">
-      <c r="C58" s="75"/>
+      <c r="C58" s="50"/>
     </row>
     <row r="67" s="30" customFormat="1" spans="3:3">
-      <c r="C67" s="75"/>
+      <c r="C67" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9270,909 +8808,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="23.4285714285714" style="30" customWidth="1"/>
-    <col min="2" max="2" width="92.5714285714286" style="30" customWidth="1"/>
-    <col min="3" max="3" width="70.7142857142857" style="30" customWidth="1"/>
-    <col min="4" max="4" width="38.8571428571429" style="30" customWidth="1"/>
-    <col min="5" max="5" width="38.1428571428571" style="30" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="30" customFormat="1" ht="108" customHeight="1" spans="1:7">
-      <c r="A1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" s="30" customFormat="1" ht="23" customHeight="1" spans="1:7">
-      <c r="A2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="6" s="30" customFormat="1" spans="1:3">
-      <c r="A6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A7" s="39">
-        <v>1</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>511</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" s="30" customFormat="1" ht="30" spans="1:3">
-      <c r="A8" s="39">
-        <v>2</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" s="30" customFormat="1" spans="1:2">
-      <c r="A9" s="39">
-        <v>3</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" s="30" customFormat="1" spans="1:2">
-      <c r="A10" s="39">
-        <v>4</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" s="30" customFormat="1" spans="1:2">
-      <c r="A11" s="39">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" s="30" customFormat="1" ht="30" spans="1:2">
-      <c r="A12" s="39">
-        <v>6</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="13" s="30" customFormat="1" spans="1:2">
-      <c r="A13" s="39">
-        <v>7</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" s="30" customFormat="1" spans="1:2">
-      <c r="A14" s="39">
-        <v>8</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" s="30" customFormat="1" ht="30" spans="1:2">
-      <c r="A15" s="39">
-        <v>9</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" s="30" customFormat="1" ht="30" spans="1:2">
-      <c r="A16" s="39">
-        <v>10</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="17" s="30" customFormat="1" ht="33" customHeight="1" spans="1:2">
-      <c r="A17" s="39">
-        <v>11</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" s="30" customFormat="1" ht="45" spans="1:2">
-      <c r="A18" s="39">
-        <v>12</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" s="30" customFormat="1" spans="1:2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-    </row>
-    <row r="20" s="30" customFormat="1" spans="1:1">
-      <c r="A20" s="43"/>
-    </row>
-    <row r="21" s="30" customFormat="1" spans="1:2">
-      <c r="A21" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" s="30" customFormat="1" spans="1:2">
-      <c r="A22" s="44">
-        <v>1</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" s="30" customFormat="1" spans="1:2">
-      <c r="A23" s="44">
-        <v>2</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" s="30" customFormat="1" spans="1:2">
-      <c r="A24" s="44">
-        <v>3</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" s="30" customFormat="1" spans="1:2">
-      <c r="A25" s="44">
-        <v>4</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" s="30" customFormat="1" spans="1:2">
-      <c r="A26" s="44">
-        <v>5</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" s="30" customFormat="1" spans="1:2">
-      <c r="A27" s="44">
-        <v>6</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" s="30" customFormat="1" spans="1:2">
-      <c r="A28" s="47">
-        <v>7</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" s="30" customFormat="1" spans="1:7">
-      <c r="A31" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="49"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:6">
-      <c r="A32" s="50">
-        <v>1</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" s="30" customFormat="1" spans="1:6">
-      <c r="A33" s="50">
-        <v>2</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A34" s="50">
-        <v>3</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>530</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" s="30" customFormat="1" ht="37" customHeight="1" spans="1:6">
-      <c r="A35" s="50"/>
-      <c r="B35" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A36" s="50">
-        <v>4</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A37" s="50"/>
-      <c r="B37" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" s="30" customFormat="1" spans="1:6">
-      <c r="A38" s="50">
-        <v>5</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A39" s="50"/>
-      <c r="B39" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:6">
-      <c r="A40" s="50">
-        <v>8</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:6">
-      <c r="A41" s="50">
-        <v>9</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-    </row>
-    <row r="42" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="50">
-        <v>10</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" s="30" customFormat="1" spans="1:6">
-      <c r="A43" s="50">
-        <v>11</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A44" s="50">
-        <v>12</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>547</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" s="30" customFormat="1" ht="35" customHeight="1" spans="1:6">
-      <c r="A45" s="50"/>
-      <c r="B45" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A46" s="50">
-        <v>13</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A47" s="50">
-        <v>14</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="50">
-        <v>15</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>554</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A49" s="50">
-        <v>16</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="50"/>
-      <c r="B50" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" s="30" customFormat="1" spans="1:6">
-      <c r="A51" s="50"/>
-      <c r="B51" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="56"/>
-    </row>
-    <row r="52" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A52" s="50">
-        <v>17</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-    </row>
-    <row r="53" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="50"/>
-      <c r="B53" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="50"/>
-      <c r="B54" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A55" s="50">
-        <v>18</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A56" s="50">
-        <v>19</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>567</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-    </row>
-    <row r="57" s="30" customFormat="1" spans="1:6">
-      <c r="A57" s="50">
-        <v>20</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A58" s="50">
-        <v>21</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>571</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>572</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A59" s="50"/>
-      <c r="B59" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" s="30" customFormat="1" spans="1:6">
-      <c r="A60" s="50"/>
-      <c r="B60" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="56"/>
-    </row>
-    <row r="61" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A61" s="50" t="s">
-        <v>576</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" s="30" customFormat="1" spans="1:6">
-      <c r="A62" s="50"/>
-      <c r="B62" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>580</v>
-      </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-    </row>
-    <row r="63" s="30" customFormat="1" spans="1:6">
-      <c r="A63" s="50">
-        <v>19</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>582</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-    </row>
-    <row r="64" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="50">
-        <v>20</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>583</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-    </row>
-    <row r="65" s="30" customFormat="1" spans="1:6">
-      <c r="A65" s="50"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-    </row>
-    <row r="66" s="30" customFormat="1" spans="1:6">
-      <c r="A66" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A67" s="59">
-        <v>23</v>
-      </c>
-      <c r="B67" s="60" t="s">
-        <v>585</v>
-      </c>
-      <c r="C67" s="61" t="s">
-        <v>586</v>
-      </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-    </row>
-    <row r="68" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A68" s="62">
-        <v>24</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>586</v>
-      </c>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-    </row>
-    <row r="69" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A69" s="63">
-        <v>25</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>587</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="46"/>
-    </row>
-    <row r="70" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A70" s="50">
-        <v>26</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" s="64" t="s">
-        <v>589</v>
-      </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-    </row>
-    <row r="71" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A71" s="50"/>
-      <c r="B71" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-    </row>
-    <row r="72" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A72" s="50"/>
-      <c r="B72" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-    </row>
-    <row r="73" s="30" customFormat="1" ht="45" spans="1:6">
-      <c r="A73" s="50">
-        <v>27</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>591</v>
-      </c>
-      <c r="C73" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-    </row>
-    <row r="74" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A74" s="50"/>
-      <c r="B74" s="64" t="s">
-        <v>593</v>
-      </c>
-      <c r="C74" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-    </row>
-    <row r="75" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A75" s="50"/>
-      <c r="B75" s="64" t="s">
-        <v>594</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-    </row>
-    <row r="76" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A76" s="50">
-        <v>28</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="C76" s="64" t="s">
-        <v>596</v>
-      </c>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-    </row>
-    <row r="77" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A77" s="50"/>
-      <c r="B77" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="C77" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-    </row>
-    <row r="78" s="30" customFormat="1" ht="30" spans="1:6">
-      <c r="A78" s="50"/>
-      <c r="B78" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="C78" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-    </row>
-    <row r="79" s="30" customFormat="1" spans="1:6">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -10190,14 +8829,14 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -10251,7 +8890,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -10263,7 +8902,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="9"/>
       <c r="F6" s="11" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -10282,7 +8921,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10294,7 +8933,7 @@
     <row r="9" ht="45" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -10343,7 +8982,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
@@ -10356,11 +8995,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="21" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -10371,11 +9010,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="21" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -10386,11 +9025,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -10401,11 +9040,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="21" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10414,7 +9053,7 @@
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="19"/>
       <c r="B18" s="15" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
@@ -10427,11 +9066,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="21" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -10442,11 +9081,11 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="21" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -10457,11 +9096,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10472,11 +9111,11 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -10485,7 +9124,7 @@
     <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="19"/>
       <c r="B23" s="15" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -10498,11 +9137,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -10511,7 +9150,7 @@
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="19"/>
       <c r="B25" s="15" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -10524,11 +9163,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="23" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -10539,11 +9178,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -10554,11 +9193,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>631</v>
+        <v>541</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>632</v>
+        <v>542</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -10569,7 +9208,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -10582,7 +9221,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -10593,7 +9232,7 @@
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="24"/>
       <c r="B31" s="25" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -10606,11 +9245,11 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="23" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -10621,11 +9260,11 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="23" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -10636,11 +9275,11 @@
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="23" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -10651,11 +9290,11 @@
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -10666,11 +9305,11 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -10681,11 +9320,11 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -10696,11 +9335,11 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -10711,11 +9350,11 @@
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -10726,11 +9365,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -10741,11 +9380,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -10756,11 +9395,11 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -10771,11 +9410,11 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -10786,11 +9425,11 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -10801,11 +9440,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -10816,11 +9455,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -10831,7 +9470,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -10844,11 +9483,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -10859,7 +9498,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -10872,11 +9511,11 @@
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -10887,7 +9526,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -10900,7 +9539,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -10913,7 +9552,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -10926,7 +9565,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -10946,7 +9585,7 @@
     <row r="56" customFormat="1" spans="1:7">
       <c r="A56" s="26"/>
       <c r="B56" s="25" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -10959,11 +9598,11 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>677</v>
+        <v>587</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>678</v>
+        <v>588</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -10981,7 +9620,7 @@
     <row r="59" customFormat="1" spans="1:7">
       <c r="A59" s="26"/>
       <c r="B59" s="25" t="s">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -10994,11 +9633,11 @@
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>681</v>
+        <v>591</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -11009,11 +9648,11 @@
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>682</v>
+        <v>592</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -11024,11 +9663,11 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>684</v>
+        <v>594</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>685</v>
+        <v>595</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -11039,14 +9678,14 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>686</v>
+        <v>596</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>688</v>
+        <v>598</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -11056,11 +9695,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>689</v>
+        <v>599</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -11071,11 +9710,11 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>691</v>
+        <v>601</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>692</v>
+        <v>602</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -11086,11 +9725,11 @@
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>693</v>
+        <v>603</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>694</v>
+        <v>604</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -11101,11 +9740,11 @@
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>696</v>
+        <v>606</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -11116,11 +9755,11 @@
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>697</v>
+        <v>607</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="23" t="s">
-        <v>698</v>
+        <v>608</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -11131,11 +9770,11 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>699</v>
+        <v>609</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -11146,11 +9785,11 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>701</v>
+        <v>611</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>702</v>
+        <v>612</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -11161,11 +9800,11 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>704</v>
+        <v>614</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -11176,11 +9815,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>705</v>
+        <v>615</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -11191,11 +9830,11 @@
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -11206,11 +9845,11 @@
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>710</v>
+        <v>620</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -11221,11 +9860,11 @@
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>711</v>
+        <v>621</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -11236,11 +9875,11 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -11251,11 +9890,11 @@
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>715</v>
+        <v>625</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>716</v>
+        <v>626</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -11264,7 +9903,7 @@
     <row r="78" customFormat="1" spans="1:7">
       <c r="A78" s="26"/>
       <c r="B78" s="28" t="s">
-        <v>717</v>
+        <v>627</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -11277,11 +9916,11 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>718</v>
+        <v>628</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>719</v>
+        <v>629</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="3"/>
@@ -11292,11 +9931,11 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>721</v>
+        <v>631</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="3"/>
@@ -11307,11 +9946,11 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>723</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
